--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/classes/spring/CAIS117-S24/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A16D9AC-91F7-5B43-8434-FC15EBBFACAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A90CA1-9F23-9B43-9728-4DE2351E9765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4360" yWindow="540" windowWidth="21880" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4360" yWindow="500" windowWidth="21880" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sched" sheetId="2" r:id="rId1"/>
@@ -483,7 +483,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -510,41 +510,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
@@ -560,18 +540,31 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -787,10 +780,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37E44A5-0A5F-414A-B4D4-809AE35C85CF}">
-  <dimension ref="A1:I62"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -834,7 +827,7 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="15"/>
       <c r="B2" s="17"/>
-      <c r="C2" s="20">
+      <c r="C2" s="57">
         <v>1</v>
       </c>
       <c r="D2" s="8"/>
@@ -847,11 +840,11 @@
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="16"/>
       <c r="B3" s="18"/>
-      <c r="C3" s="21"/>
+      <c r="C3" s="58"/>
       <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="20">
         <v>44943</v>
       </c>
       <c r="F3" t="s">
@@ -862,11 +855,11 @@
     <row r="4" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
       <c r="B4" s="19"/>
-      <c r="C4" s="22"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="21">
         <v>44945</v>
       </c>
       <c r="F4" s="13" t="s">
@@ -885,16 +878,16 @@
       <c r="B5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="57">
         <v>2</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="22">
         <v>44948</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="50" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="8" t="s">
@@ -906,11 +899,11 @@
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="10"/>
       <c r="B6" s="18"/>
-      <c r="C6" s="21"/>
+      <c r="C6" s="58"/>
       <c r="D6" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="20">
         <v>44950</v>
       </c>
       <c r="F6" s="18" t="s">
@@ -921,11 +914,11 @@
     <row r="7" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="22"/>
+      <c r="C7" s="59"/>
       <c r="D7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="21">
         <v>44952</v>
       </c>
       <c r="F7" s="13" t="s">
@@ -937,23 +930,23 @@
       <c r="H7" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="56" t="s">
+      <c r="I7" s="48" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="20">
+      <c r="C8" s="57">
         <v>3</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="22">
         <v>44955</v>
       </c>
-      <c r="F8" s="59" t="s">
+      <c r="F8" s="8" t="s">
         <v>26</v>
       </c>
       <c r="G8" s="8" t="s">
@@ -964,11 +957,11 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
-      <c r="C9" s="21"/>
+      <c r="C9" s="58"/>
       <c r="D9" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="20">
         <v>44957</v>
       </c>
       <c r="F9" t="s">
@@ -982,11 +975,11 @@
     <row r="10" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12"/>
       <c r="B10" s="13"/>
-      <c r="C10" s="22"/>
+      <c r="C10" s="59"/>
       <c r="D10" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="21">
         <v>44959</v>
       </c>
       <c r="F10" s="13" t="s">
@@ -998,23 +991,23 @@
       <c r="H10" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="I10" s="56" t="s">
+      <c r="I10" s="48" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="7"/>
       <c r="B11" s="17"/>
-      <c r="C11" s="20">
+      <c r="C11" s="57">
         <v>4</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="22">
         <v>44962</v>
       </c>
-      <c r="F11" s="67" t="s">
+      <c r="F11" s="55" t="s">
         <v>36</v>
       </c>
       <c r="G11" s="17" t="s">
@@ -1028,14 +1021,14 @@
       <c r="B12" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="21"/>
+      <c r="C12" s="58"/>
       <c r="D12" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="20">
         <v>44964</v>
       </c>
-      <c r="F12" s="61" t="s">
+      <c r="F12" s="51" t="s">
         <v>35</v>
       </c>
       <c r="I12" s="11"/>
@@ -1043,11 +1036,11 @@
     <row r="13" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
-      <c r="C13" s="22"/>
+      <c r="C13" s="59"/>
       <c r="D13" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="21">
         <v>44966</v>
       </c>
       <c r="F13" s="13" t="s">
@@ -1059,23 +1052,23 @@
       <c r="H13" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="56" t="s">
+      <c r="I13" s="48" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="20">
+      <c r="C14" s="57">
         <v>5</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E14" s="22">
         <v>44969</v>
       </c>
-      <c r="F14" s="67" t="s">
+      <c r="F14" s="55" t="s">
         <v>44</v>
       </c>
       <c r="G14" s="8" t="s">
@@ -1086,11 +1079,11 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
-      <c r="C15" s="21"/>
+      <c r="C15" s="58"/>
       <c r="D15" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="20">
         <v>44971</v>
       </c>
       <c r="F15" t="s">
@@ -1104,11 +1097,11 @@
     <row r="16" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
       <c r="B16" s="13"/>
-      <c r="C16" s="22"/>
+      <c r="C16" s="59"/>
       <c r="D16" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="21">
         <v>44973</v>
       </c>
       <c r="F16" s="19" t="s">
@@ -1118,46 +1111,46 @@
       <c r="H16" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="I16" s="56" t="s">
+      <c r="I16" s="48" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="57">
         <v>6</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="30">
+      <c r="E17" s="25">
         <v>44976</v>
       </c>
-      <c r="F17" s="31" t="s">
+      <c r="F17" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="32"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="27"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
       <c r="B18" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="21"/>
+      <c r="C18" s="58"/>
       <c r="D18" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="20">
         <v>44978</v>
       </c>
-      <c r="F18" s="61" t="s">
+      <c r="F18" s="51" t="s">
         <v>83</v>
       </c>
       <c r="I18" s="11"/>
@@ -1165,11 +1158,11 @@
     <row r="19" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="12"/>
       <c r="B19" s="13"/>
-      <c r="C19" s="22"/>
+      <c r="C19" s="59"/>
       <c r="D19" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="21">
         <v>44980</v>
       </c>
       <c r="F19" s="19" t="s">
@@ -1181,23 +1174,23 @@
       <c r="H19" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="I19" s="56" t="s">
+      <c r="I19" s="48" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="20">
+      <c r="C20" s="57">
         <v>7</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="25">
+      <c r="E20" s="22">
         <v>44983</v>
       </c>
-      <c r="F20" s="67" t="s">
+      <c r="F20" s="55" t="s">
         <v>42</v>
       </c>
       <c r="G20" s="8" t="s">
@@ -1208,11 +1201,11 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="10"/>
-      <c r="C21" s="21"/>
+      <c r="C21" s="58"/>
       <c r="D21" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="20">
         <v>44985</v>
       </c>
       <c r="F21" s="18" t="s">
@@ -1226,11 +1219,11 @@
     <row r="22" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12"/>
       <c r="B22" s="13"/>
-      <c r="C22" s="22"/>
+      <c r="C22" s="59"/>
       <c r="D22" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="21">
         <v>44986</v>
       </c>
       <c r="F22" s="13" t="s">
@@ -1242,23 +1235,23 @@
       <c r="H22" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="I22" s="56" t="s">
+      <c r="I22" s="48" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
-      <c r="C23" s="20">
+      <c r="C23" s="57">
         <v>8</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="25">
+      <c r="E23" s="22">
         <v>44989</v>
       </c>
-      <c r="F23" s="67" t="s">
+      <c r="F23" s="55" t="s">
         <v>49</v>
       </c>
       <c r="G23" s="8" t="s">
@@ -1270,14 +1263,14 @@
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
       <c r="B24" s="18"/>
-      <c r="C24" s="21"/>
+      <c r="C24" s="58"/>
       <c r="D24" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="20">
         <v>44991</v>
       </c>
-      <c r="F24" s="69" t="s">
+      <c r="F24" s="56" t="s">
         <v>51</v>
       </c>
       <c r="G24" t="s">
@@ -1290,99 +1283,99 @@
       <c r="B25" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="22"/>
+      <c r="C25" s="59"/>
       <c r="D25" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="24">
+      <c r="E25" s="21">
         <v>44993</v>
       </c>
-      <c r="F25" s="66" t="s">
+      <c r="F25" s="52" t="s">
         <v>86</v>
       </c>
       <c r="G25" s="13"/>
       <c r="H25" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="I25" s="56" t="s">
+      <c r="I25" s="48" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="29">
+      <c r="C26" s="60">
         <v>9</v>
       </c>
-      <c r="D26" s="28" t="s">
+      <c r="D26" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="E26" s="30">
+      <c r="E26" s="25">
         <v>44996</v>
       </c>
-      <c r="F26" s="31" t="s">
+      <c r="F26" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="32"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="27"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="35"/>
-      <c r="D27" s="36" t="s">
+      <c r="C27" s="61"/>
+      <c r="D27" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="37">
+      <c r="E27" s="30">
         <v>44998</v>
       </c>
-      <c r="F27" s="38" t="s">
+      <c r="F27" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="39"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="32"/>
     </row>
     <row r="28" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="40" t="s">
+      <c r="A28" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="42"/>
-      <c r="D28" s="41" t="s">
+      <c r="C28" s="62"/>
+      <c r="D28" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="E28" s="43">
+      <c r="E28" s="35">
         <v>45000</v>
       </c>
-      <c r="F28" s="44" t="s">
+      <c r="F28" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="45"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="37"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="7"/>
       <c r="B29" s="8"/>
-      <c r="C29" s="20">
+      <c r="C29" s="57">
         <v>10</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="25">
+      <c r="E29" s="22">
         <v>45003</v>
       </c>
       <c r="F29" s="8" t="s">
@@ -1396,11 +1389,11 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="10"/>
-      <c r="C30" s="21"/>
+      <c r="C30" s="58"/>
       <c r="D30" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="23">
+      <c r="E30" s="20">
         <v>45005</v>
       </c>
       <c r="F30" t="s">
@@ -1414,11 +1407,11 @@
     <row r="31" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
-      <c r="C31" s="22"/>
+      <c r="C31" s="59"/>
       <c r="D31" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E31" s="24">
+      <c r="E31" s="21">
         <v>45007</v>
       </c>
       <c r="F31" s="13" t="s">
@@ -1430,7 +1423,7 @@
       <c r="H31" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="I31" s="56" t="s">
+      <c r="I31" s="48" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1439,16 +1432,16 @@
       <c r="B32" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="20">
+      <c r="C32" s="57">
         <v>11</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E32" s="25">
+      <c r="E32" s="22">
         <v>45010</v>
       </c>
-      <c r="F32" s="60" t="s">
+      <c r="F32" s="50" t="s">
         <v>35</v>
       </c>
       <c r="G32" s="8"/>
@@ -1457,11 +1450,11 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="10"/>
-      <c r="C33" s="21"/>
+      <c r="C33" s="58"/>
       <c r="D33" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="23">
+      <c r="E33" s="20">
         <v>45012</v>
       </c>
       <c r="F33" t="s">
@@ -1475,14 +1468,14 @@
     <row r="34" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="12"/>
       <c r="B34" s="13"/>
-      <c r="C34" s="22"/>
+      <c r="C34" s="59"/>
       <c r="D34" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E34" s="24">
+      <c r="E34" s="21">
         <v>45014</v>
       </c>
-      <c r="F34" s="58" t="s">
+      <c r="F34" s="13" t="s">
         <v>58</v>
       </c>
       <c r="G34" s="13" t="s">
@@ -1491,20 +1484,20 @@
       <c r="H34" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="I34" s="56" t="s">
+      <c r="I34" s="48" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="7"/>
       <c r="B35" s="8"/>
-      <c r="C35" s="20">
+      <c r="C35" s="57">
         <v>12</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E35" s="25">
+      <c r="E35" s="22">
         <v>45017</v>
       </c>
       <c r="F35" s="8" t="s">
@@ -1518,14 +1511,14 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="10"/>
-      <c r="C36" s="21"/>
+      <c r="C36" s="58"/>
       <c r="D36" t="s">
         <v>15</v>
       </c>
-      <c r="E36" s="23">
+      <c r="E36" s="20">
         <v>45019</v>
       </c>
-      <c r="F36" s="63" t="s">
+      <c r="F36" t="s">
         <v>87</v>
       </c>
       <c r="I36" s="11"/>
@@ -1535,14 +1528,14 @@
       <c r="B37" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="22"/>
+      <c r="C37" s="59"/>
       <c r="D37" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E37" s="24">
+      <c r="E37" s="21">
         <v>45021</v>
       </c>
-      <c r="F37" s="62" t="s">
+      <c r="F37" s="52" t="s">
         <v>61</v>
       </c>
       <c r="G37" s="13"/>
@@ -1554,13 +1547,13 @@
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="7"/>
       <c r="B38" s="8"/>
-      <c r="C38" s="20">
+      <c r="C38" s="57">
         <v>13</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E38" s="25">
+      <c r="E38" s="22">
         <v>45024</v>
       </c>
       <c r="F38" s="17" t="s">
@@ -1574,11 +1567,11 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="10"/>
-      <c r="C39" s="21"/>
+      <c r="C39" s="58"/>
       <c r="D39" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="23">
+      <c r="E39" s="20">
         <v>45026</v>
       </c>
       <c r="F39" t="s">
@@ -1590,63 +1583,63 @@
       <c r="I39" s="11"/>
     </row>
     <row r="40" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="65" t="s">
+      <c r="A40" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="44" t="s">
+      <c r="B40" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="41" t="s">
+      <c r="C40" s="59"/>
+      <c r="D40" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="E40" s="43">
+      <c r="E40" s="35">
         <v>45028</v>
       </c>
-      <c r="F40" s="44" t="s">
+      <c r="F40" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="64" t="s">
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="53" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A41" s="46" t="s">
+      <c r="A41" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="31" t="s">
+      <c r="B41" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="20">
+      <c r="C41" s="57">
         <v>14</v>
       </c>
-      <c r="D41" s="28" t="s">
+      <c r="D41" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="E41" s="30">
+      <c r="E41" s="25">
         <v>45031</v>
       </c>
-      <c r="F41" s="31" t="s">
+      <c r="F41" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="G41" s="28" t="s">
+      <c r="G41" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="H41" s="28"/>
-      <c r="I41" s="32"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="27"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" s="10"/>
-      <c r="C42" s="21"/>
+      <c r="C42" s="58"/>
       <c r="D42" t="s">
         <v>15</v>
       </c>
-      <c r="E42" s="23">
+      <c r="E42" s="20">
         <v>45033</v>
       </c>
-      <c r="F42" s="63" t="s">
+      <c r="F42" t="s">
         <v>80</v>
       </c>
       <c r="I42" s="11"/>
@@ -1656,19 +1649,19 @@
       <c r="B43" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C43" s="22"/>
+      <c r="C43" s="59"/>
       <c r="D43" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E43" s="24">
+      <c r="E43" s="21">
         <v>45035</v>
       </c>
-      <c r="F43" s="62" t="s">
+      <c r="F43" s="52" t="s">
         <v>81</v>
       </c>
       <c r="G43" s="13"/>
       <c r="H43" s="13"/>
-      <c r="I43" s="56" t="s">
+      <c r="I43" s="48" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1677,16 +1670,16 @@
       <c r="B44" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="20">
+      <c r="C44" s="57">
         <v>15</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E44" s="25">
+      <c r="E44" s="22">
         <v>45038</v>
       </c>
-      <c r="F44" s="47" t="s">
+      <c r="F44" s="39" t="s">
         <v>69</v>
       </c>
       <c r="G44" s="8"/>
@@ -1695,11 +1688,11 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" s="10"/>
-      <c r="C45" s="21"/>
+      <c r="C45" s="58"/>
       <c r="D45" t="s">
         <v>15</v>
       </c>
-      <c r="E45" s="23">
+      <c r="E45" s="20">
         <v>45040</v>
       </c>
       <c r="F45" t="s">
@@ -1712,14 +1705,14 @@
       <c r="B46" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="22"/>
+      <c r="C46" s="59"/>
       <c r="D46" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E46" s="24">
+      <c r="E46" s="21">
         <v>45042</v>
       </c>
-      <c r="F46" s="62" t="s">
+      <c r="F46" s="52" t="s">
         <v>35</v>
       </c>
       <c r="G46" s="13"/>
@@ -1731,86 +1724,65 @@
       <c r="B47" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C47" s="20">
+      <c r="C47" s="57">
         <v>16</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E47" s="25">
+      <c r="E47" s="22">
         <v>45038</v>
       </c>
-      <c r="F47" s="47" t="s">
+      <c r="F47" s="39" t="s">
         <v>69</v>
       </c>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
-      <c r="I47" s="57" t="s">
+      <c r="I47" s="49" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A48" s="48" t="s">
+      <c r="A48" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B48" s="49" t="s">
+      <c r="B48" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="21"/>
+      <c r="C48" s="58"/>
       <c r="D48" t="s">
         <v>15</v>
       </c>
-      <c r="E48" s="23">
+      <c r="E48" s="20">
         <v>45040</v>
       </c>
-      <c r="F48" s="52" t="s">
+      <c r="F48" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="G48" s="49"/>
-      <c r="H48" s="49"/>
-      <c r="I48" s="53"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="41"/>
+      <c r="I48" s="45"/>
     </row>
     <row r="49" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="50" t="s">
+      <c r="A49" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="51" t="s">
+      <c r="B49" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C49" s="22"/>
+      <c r="C49" s="59"/>
       <c r="D49" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E49" s="24">
+      <c r="E49" s="21">
         <v>45042</v>
       </c>
-      <c r="F49" s="54" t="s">
+      <c r="F49" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="G49" s="51"/>
-      <c r="H49" s="51"/>
-      <c r="I49" s="55"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="F51" s="26"/>
-      <c r="G51" s="26"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="F54" s="26"/>
-      <c r="G54" s="26"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="F56" s="26"/>
-      <c r="G56" s="26"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="F59" s="26"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="F60" s="68"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="F62" s="26"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="43"/>
+      <c r="I49" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="16">

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/classes/spring/CAIS117-S24/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Westfield/classes/CAIS117-S24/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A90CA1-9F23-9B43-9728-4DE2351E9765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D08C95-275A-8940-8854-B96A6205B998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4360" yWindow="500" windowWidth="21880" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="87">
   <si>
     <t>Date</t>
   </si>
@@ -267,9 +267,6 @@
   </si>
   <si>
     <t>q04</t>
-  </si>
-  <si>
-    <t>q05</t>
   </si>
   <si>
     <t xml:space="preserve">Problem Decomposition &amp; Code Aritecture </t>
@@ -782,8 +779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37E44A5-0A5F-414A-B4D4-809AE35C85CF}">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -868,9 +865,7 @@
       <c r="G4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="19" t="s">
-        <v>74</v>
-      </c>
+      <c r="H4" s="19"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
@@ -907,7 +902,7 @@
         <v>44950</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I6" s="11"/>
     </row>
@@ -928,11 +923,9 @@
         <v>25</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="48" t="s">
         <v>74</v>
       </c>
+      <c r="I7" s="48"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="7"/>
@@ -989,10 +982,10 @@
         <v>41</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="I10" s="48" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
@@ -1050,10 +1043,10 @@
         <v>33</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="I13" s="48" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
@@ -1105,14 +1098,14 @@
         <v>44973</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="19" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="I16" s="48" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
@@ -1151,7 +1144,7 @@
         <v>44978</v>
       </c>
       <c r="F18" s="51" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I18" s="11"/>
     </row>
@@ -1166,16 +1159,16 @@
         <v>44980</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G19" s="19" t="s">
         <v>39</v>
       </c>
       <c r="H19" s="19" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="I19" s="48" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
@@ -1209,7 +1202,7 @@
         <v>44985</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G21" s="18" t="s">
         <v>39</v>
@@ -1233,10 +1226,10 @@
         <v>48</v>
       </c>
       <c r="H22" s="19" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="I22" s="48" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
@@ -1291,14 +1284,14 @@
         <v>44993</v>
       </c>
       <c r="F25" s="52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G25" s="13"/>
       <c r="H25" s="19" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I25" s="48" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
@@ -1421,10 +1414,10 @@
         <v>53</v>
       </c>
       <c r="H31" s="19" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I31" s="48" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
@@ -1485,7 +1478,7 @@
         <v>14</v>
       </c>
       <c r="I34" s="48" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
@@ -1519,7 +1512,7 @@
         <v>45019</v>
       </c>
       <c r="F36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I36" s="11"/>
     </row>
@@ -1640,7 +1633,7 @@
         <v>45033</v>
       </c>
       <c r="F42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I42" s="11"/>
     </row>
@@ -1657,7 +1650,7 @@
         <v>45035</v>
       </c>
       <c r="F43" s="52" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G43" s="13"/>
       <c r="H43" s="13"/>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Westfield/classes/CAIS117-S24/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D08C95-275A-8940-8854-B96A6205B998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FADF93C-F65E-E245-820E-48CD8C2AC72E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4360" yWindow="500" windowWidth="21880" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="88">
   <si>
     <t>Date</t>
   </si>
@@ -269,9 +269,6 @@
     <t>q04</t>
   </si>
   <si>
-    <t xml:space="preserve">Problem Decomposition &amp; Code Aritecture </t>
-  </si>
-  <si>
     <t xml:space="preserve">Working with Files </t>
   </si>
   <si>
@@ -294,6 +291,12 @@
   </si>
   <si>
     <t xml:space="preserve">Developing Applications </t>
+  </si>
+  <si>
+    <t>ic01</t>
+  </si>
+  <si>
+    <t>Variables, merge conflics</t>
   </si>
 </sst>
 </file>
@@ -779,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37E44A5-0A5F-414A-B4D4-809AE35C85CF}">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -889,7 +892,9 @@
         <v>23</v>
       </c>
       <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
+      <c r="I5" s="49" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="10"/>
@@ -902,7 +907,7 @@
         <v>44950</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I6" s="11"/>
     </row>
@@ -1098,7 +1103,7 @@
         <v>44973</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="19" t="s">
@@ -1144,7 +1149,7 @@
         <v>44978</v>
       </c>
       <c r="F18" s="51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I18" s="11"/>
     </row>
@@ -1159,7 +1164,7 @@
         <v>44980</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G19" s="19" t="s">
         <v>39</v>
@@ -1202,7 +1207,7 @@
         <v>44985</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G21" s="18" t="s">
         <v>39</v>
@@ -1284,7 +1289,7 @@
         <v>44993</v>
       </c>
       <c r="F25" s="52" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G25" s="13"/>
       <c r="H25" s="19" t="s">
@@ -1512,7 +1517,7 @@
         <v>45019</v>
       </c>
       <c r="F36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I36" s="11"/>
     </row>
@@ -1633,7 +1638,7 @@
         <v>45033</v>
       </c>
       <c r="F42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I42" s="11"/>
     </row>
@@ -1650,7 +1655,7 @@
         <v>45035</v>
       </c>
       <c r="F43" s="52" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G43" s="13"/>
       <c r="H43" s="13"/>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Westfield/classes/CAIS117-S24/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Westfield/classes/CAIS117-S24/website/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FADF93C-F65E-E245-820E-48CD8C2AC72E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5796C6-D35F-D04D-AE71-A12AB446F476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4360" yWindow="500" windowWidth="21880" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -783,7 +783,7 @@
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -871,7 +871,7 @@
       <c r="H4" s="19"/>
       <c r="I4" s="14"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="17" t="s">
         <v>12</v>
@@ -892,9 +892,7 @@
         <v>23</v>
       </c>
       <c r="H5" s="8"/>
-      <c r="I5" s="49" t="s">
-        <v>86</v>
-      </c>
+      <c r="I5" s="49"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="10"/>
@@ -909,7 +907,9 @@
       <c r="F6" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="I6" s="11"/>
+      <c r="I6" s="49" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Westfield/classes/CAIS117-S24/website/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5796C6-D35F-D04D-AE71-A12AB446F476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C33556F-7CEB-2B4F-BBE3-15E74950EA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4360" yWindow="500" windowWidth="21880" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -391,7 +391,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -479,11 +479,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -565,6 +578,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -783,7 +798,7 @@
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -871,7 +886,7 @@
       <c r="H4" s="19"/>
       <c r="I4" s="14"/>
     </row>
-    <row r="5" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="17" t="s">
         <v>12</v>
@@ -892,7 +907,7 @@
         <v>23</v>
       </c>
       <c r="H5" s="8"/>
-      <c r="I5" s="49"/>
+      <c r="I5" s="64"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="10"/>
@@ -907,7 +922,7 @@
       <c r="F6" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="I6" s="49" t="s">
+      <c r="I6" s="63" t="s">
         <v>86</v>
       </c>
     </row>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Westfield/classes/CAIS117-S24/website/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C33556F-7CEB-2B4F-BBE3-15E74950EA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94952FFE-39A7-3440-BA4B-AC88D795E343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4360" yWindow="500" windowWidth="21880" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4360" yWindow="500" windowWidth="24440" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sched" sheetId="2" r:id="rId1"/>
@@ -278,9 +278,6 @@
     <t>More functions [main()]</t>
   </si>
   <si>
-    <t xml:space="preserve">Documentation </t>
-  </si>
-  <si>
     <t xml:space="preserve">While loops </t>
   </si>
   <si>
@@ -297,6 +294,9 @@
   </si>
   <si>
     <t>Variables, merge conflics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documentation / Debugging </t>
   </si>
 </sst>
 </file>
@@ -391,7 +391,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -479,24 +479,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -560,6 +547,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -578,8 +566,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -797,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37E44A5-0A5F-414A-B4D4-809AE35C85CF}">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -842,7 +828,7 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="15"/>
       <c r="B2" s="17"/>
-      <c r="C2" s="57">
+      <c r="C2" s="58">
         <v>1</v>
       </c>
       <c r="D2" s="8"/>
@@ -855,7 +841,7 @@
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="16"/>
       <c r="B3" s="18"/>
-      <c r="C3" s="58"/>
+      <c r="C3" s="59"/>
       <c r="D3" t="s">
         <v>15</v>
       </c>
@@ -870,7 +856,7 @@
     <row r="4" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
       <c r="B4" s="19"/>
-      <c r="C4" s="59"/>
+      <c r="C4" s="60"/>
       <c r="D4" s="13" t="s">
         <v>17</v>
       </c>
@@ -891,7 +877,7 @@
       <c r="B5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="57">
+      <c r="C5" s="58">
         <v>2</v>
       </c>
       <c r="D5" s="8" t="s">
@@ -907,12 +893,12 @@
         <v>23</v>
       </c>
       <c r="H5" s="8"/>
-      <c r="I5" s="64"/>
+      <c r="I5" s="49"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="10"/>
       <c r="B6" s="18"/>
-      <c r="C6" s="58"/>
+      <c r="C6" s="59"/>
       <c r="D6" t="s">
         <v>15</v>
       </c>
@@ -920,16 +906,16 @@
         <v>44950</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="I6" s="63" t="s">
         <v>86</v>
+      </c>
+      <c r="I6" s="57" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="59"/>
+      <c r="C7" s="60"/>
       <c r="D7" s="13" t="s">
         <v>17</v>
       </c>
@@ -950,7 +936,7 @@
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="57">
+      <c r="C8" s="58">
         <v>3</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -970,7 +956,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
-      <c r="C9" s="58"/>
+      <c r="C9" s="59"/>
       <c r="D9" t="s">
         <v>15</v>
       </c>
@@ -988,7 +974,7 @@
     <row r="10" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12"/>
       <c r="B10" s="13"/>
-      <c r="C10" s="59"/>
+      <c r="C10" s="60"/>
       <c r="D10" s="13" t="s">
         <v>17</v>
       </c>
@@ -1011,7 +997,7 @@
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="7"/>
       <c r="B11" s="17"/>
-      <c r="C11" s="57">
+      <c r="C11" s="58">
         <v>4</v>
       </c>
       <c r="D11" s="8" t="s">
@@ -1034,7 +1020,7 @@
       <c r="B12" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="58"/>
+      <c r="C12" s="59"/>
       <c r="D12" t="s">
         <v>15</v>
       </c>
@@ -1049,7 +1035,7 @@
     <row r="13" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
-      <c r="C13" s="59"/>
+      <c r="C13" s="60"/>
       <c r="D13" s="13" t="s">
         <v>17</v>
       </c>
@@ -1072,7 +1058,7 @@
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="57">
+      <c r="C14" s="58">
         <v>5</v>
       </c>
       <c r="D14" s="8" t="s">
@@ -1092,7 +1078,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
-      <c r="C15" s="58"/>
+      <c r="C15" s="59"/>
       <c r="D15" t="s">
         <v>15</v>
       </c>
@@ -1110,7 +1096,7 @@
     <row r="16" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
       <c r="B16" s="13"/>
-      <c r="C16" s="59"/>
+      <c r="C16" s="60"/>
       <c r="D16" s="13" t="s">
         <v>17</v>
       </c>
@@ -1135,7 +1121,7 @@
       <c r="B17" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="57">
+      <c r="C17" s="58">
         <v>6</v>
       </c>
       <c r="D17" s="24" t="s">
@@ -1156,7 +1142,7 @@
       <c r="B18" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="58"/>
+      <c r="C18" s="59"/>
       <c r="D18" t="s">
         <v>15</v>
       </c>
@@ -1164,14 +1150,14 @@
         <v>44978</v>
       </c>
       <c r="F18" s="51" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="I18" s="11"/>
     </row>
     <row r="19" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="12"/>
       <c r="B19" s="13"/>
-      <c r="C19" s="59"/>
+      <c r="C19" s="60"/>
       <c r="D19" s="13" t="s">
         <v>17</v>
       </c>
@@ -1179,7 +1165,7 @@
         <v>44980</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G19" s="19" t="s">
         <v>39</v>
@@ -1194,7 +1180,7 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="57">
+      <c r="C20" s="58">
         <v>7</v>
       </c>
       <c r="D20" s="8" t="s">
@@ -1214,7 +1200,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="10"/>
-      <c r="C21" s="58"/>
+      <c r="C21" s="59"/>
       <c r="D21" t="s">
         <v>15</v>
       </c>
@@ -1222,7 +1208,7 @@
         <v>44985</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G21" s="18" t="s">
         <v>39</v>
@@ -1232,7 +1218,7 @@
     <row r="22" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12"/>
       <c r="B22" s="13"/>
-      <c r="C22" s="59"/>
+      <c r="C22" s="60"/>
       <c r="D22" s="13" t="s">
         <v>17</v>
       </c>
@@ -1255,7 +1241,7 @@
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
-      <c r="C23" s="57">
+      <c r="C23" s="58">
         <v>8</v>
       </c>
       <c r="D23" s="8" t="s">
@@ -1276,7 +1262,7 @@
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
       <c r="B24" s="18"/>
-      <c r="C24" s="58"/>
+      <c r="C24" s="59"/>
       <c r="D24" t="s">
         <v>15</v>
       </c>
@@ -1296,7 +1282,7 @@
       <c r="B25" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="59"/>
+      <c r="C25" s="60"/>
       <c r="D25" s="13" t="s">
         <v>17</v>
       </c>
@@ -1304,7 +1290,7 @@
         <v>44993</v>
       </c>
       <c r="F25" s="52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G25" s="13"/>
       <c r="H25" s="19" t="s">
@@ -1321,7 +1307,7 @@
       <c r="B26" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="60">
+      <c r="C26" s="61">
         <v>9</v>
       </c>
       <c r="D26" s="24" t="s">
@@ -1344,7 +1330,7 @@
       <c r="B27" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="61"/>
+      <c r="C27" s="62"/>
       <c r="D27" s="29" t="s">
         <v>15</v>
       </c>
@@ -1365,7 +1351,7 @@
       <c r="B28" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="62"/>
+      <c r="C28" s="63"/>
       <c r="D28" s="34" t="s">
         <v>17</v>
       </c>
@@ -1382,7 +1368,7 @@
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="7"/>
       <c r="B29" s="8"/>
-      <c r="C29" s="57">
+      <c r="C29" s="58">
         <v>10</v>
       </c>
       <c r="D29" s="8" t="s">
@@ -1402,7 +1388,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="10"/>
-      <c r="C30" s="58"/>
+      <c r="C30" s="59"/>
       <c r="D30" t="s">
         <v>15</v>
       </c>
@@ -1420,7 +1406,7 @@
     <row r="31" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
-      <c r="C31" s="59"/>
+      <c r="C31" s="60"/>
       <c r="D31" s="13" t="s">
         <v>17</v>
       </c>
@@ -1445,7 +1431,7 @@
       <c r="B32" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="57">
+      <c r="C32" s="58">
         <v>11</v>
       </c>
       <c r="D32" s="8" t="s">
@@ -1463,7 +1449,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="10"/>
-      <c r="C33" s="58"/>
+      <c r="C33" s="59"/>
       <c r="D33" t="s">
         <v>15</v>
       </c>
@@ -1481,7 +1467,7 @@
     <row r="34" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="12"/>
       <c r="B34" s="13"/>
-      <c r="C34" s="59"/>
+      <c r="C34" s="60"/>
       <c r="D34" s="13" t="s">
         <v>17</v>
       </c>
@@ -1504,7 +1490,7 @@
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="7"/>
       <c r="B35" s="8"/>
-      <c r="C35" s="57">
+      <c r="C35" s="58">
         <v>12</v>
       </c>
       <c r="D35" s="8" t="s">
@@ -1524,7 +1510,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="10"/>
-      <c r="C36" s="58"/>
+      <c r="C36" s="59"/>
       <c r="D36" t="s">
         <v>15</v>
       </c>
@@ -1532,7 +1518,7 @@
         <v>45019</v>
       </c>
       <c r="F36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I36" s="11"/>
     </row>
@@ -1541,7 +1527,7 @@
       <c r="B37" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="59"/>
+      <c r="C37" s="60"/>
       <c r="D37" s="13" t="s">
         <v>17</v>
       </c>
@@ -1560,7 +1546,7 @@
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="7"/>
       <c r="B38" s="8"/>
-      <c r="C38" s="57">
+      <c r="C38" s="58">
         <v>13</v>
       </c>
       <c r="D38" s="8" t="s">
@@ -1580,7 +1566,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="10"/>
-      <c r="C39" s="58"/>
+      <c r="C39" s="59"/>
       <c r="D39" t="s">
         <v>15</v>
       </c>
@@ -1602,7 +1588,7 @@
       <c r="B40" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="59"/>
+      <c r="C40" s="60"/>
       <c r="D40" s="34" t="s">
         <v>17</v>
       </c>
@@ -1625,7 +1611,7 @@
       <c r="B41" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="57">
+      <c r="C41" s="58">
         <v>14</v>
       </c>
       <c r="D41" s="24" t="s">
@@ -1645,7 +1631,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" s="10"/>
-      <c r="C42" s="58"/>
+      <c r="C42" s="59"/>
       <c r="D42" t="s">
         <v>15</v>
       </c>
@@ -1662,7 +1648,7 @@
       <c r="B43" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C43" s="59"/>
+      <c r="C43" s="60"/>
       <c r="D43" s="13" t="s">
         <v>17</v>
       </c>
@@ -1683,7 +1669,7 @@
       <c r="B44" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="57">
+      <c r="C44" s="58">
         <v>15</v>
       </c>
       <c r="D44" s="8" t="s">
@@ -1701,7 +1687,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" s="10"/>
-      <c r="C45" s="58"/>
+      <c r="C45" s="59"/>
       <c r="D45" t="s">
         <v>15</v>
       </c>
@@ -1718,7 +1704,7 @@
       <c r="B46" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="59"/>
+      <c r="C46" s="60"/>
       <c r="D46" s="13" t="s">
         <v>17</v>
       </c>
@@ -1737,7 +1723,7 @@
       <c r="B47" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C47" s="57">
+      <c r="C47" s="58">
         <v>16</v>
       </c>
       <c r="D47" s="8" t="s">
@@ -1762,7 +1748,7 @@
       <c r="B48" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="58"/>
+      <c r="C48" s="59"/>
       <c r="D48" t="s">
         <v>15</v>
       </c>
@@ -1783,7 +1769,7 @@
       <c r="B49" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C49" s="59"/>
+      <c r="C49" s="60"/>
       <c r="D49" s="13" t="s">
         <v>17</v>
       </c>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Westfield/classes/CAIS117-S24/website/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94952FFE-39A7-3440-BA4B-AC88D795E343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B323188F-231F-BC48-AC83-F59FB51C8D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4360" yWindow="500" windowWidth="24440" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11300" yWindow="500" windowWidth="24440" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sched" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="89">
   <si>
     <t>Date</t>
   </si>
@@ -161,21 +161,12 @@
     <t>Ch 2.8, 2.10</t>
   </si>
   <si>
-    <t>Lists</t>
-  </si>
-  <si>
     <t>Ch 8.1 - 8.11</t>
   </si>
   <si>
-    <t>Writing functions</t>
-  </si>
-  <si>
     <t>Ch 6</t>
   </si>
   <si>
-    <t xml:space="preserve">More functions </t>
-  </si>
-  <si>
     <t>Dictionaries</t>
   </si>
   <si>
@@ -278,9 +269,6 @@
     <t>More functions [main()]</t>
   </si>
   <si>
-    <t xml:space="preserve">While loops </t>
-  </si>
-  <si>
     <t xml:space="preserve">For loops </t>
   </si>
   <si>
@@ -296,7 +284,23 @@
     <t>Variables, merge conflics</t>
   </si>
   <si>
-    <t xml:space="preserve">Documentation / Debugging </t>
+    <t xml:space="preserve">Lists </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Writing functions </t>
+  </si>
+  <si>
+    <t>More functions</t>
+  </si>
+  <si>
+    <t>Ch5</t>
+  </si>
+  <si>
+    <t>While loops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Documentation / Debugging </t>
   </si>
 </sst>
 </file>
@@ -483,7 +487,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -566,6 +570,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -783,8 +794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37E44A5-0A5F-414A-B4D4-809AE35C85CF}">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -906,10 +917,10 @@
         <v>44950</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I6" s="57" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -929,7 +940,7 @@
         <v>25</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I7" s="48"/>
     </row>
@@ -981,20 +992,20 @@
       <c r="E10" s="21">
         <v>44959</v>
       </c>
-      <c r="F10" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>41</v>
+      <c r="F10" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>37</v>
       </c>
       <c r="H10" s="19" t="s">
         <v>20</v>
       </c>
       <c r="I10" s="48" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7"/>
       <c r="B11" s="17"/>
       <c r="C11" s="58">
@@ -1007,10 +1018,10 @@
         <v>44962</v>
       </c>
       <c r="F11" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>37</v>
+        <v>83</v>
+      </c>
+      <c r="G11" s="64" t="s">
+        <v>42</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="9"/>
@@ -1049,13 +1060,13 @@
         <v>33</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I13" s="48" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="58">
@@ -1067,11 +1078,11 @@
       <c r="E14" s="22">
         <v>44969</v>
       </c>
-      <c r="F14" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>45</v>
+      <c r="F14" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="64" t="s">
+        <v>41</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="9"/>
@@ -1085,11 +1096,11 @@
       <c r="E15" s="20">
         <v>44971</v>
       </c>
-      <c r="F15" t="s">
-        <v>46</v>
+      <c r="F15" s="18" t="s">
+        <v>84</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I15" s="11"/>
     </row>
@@ -1104,14 +1115,16 @@
         <v>44973</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="G16" s="13"/>
+        <v>85</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>43</v>
+      </c>
       <c r="H16" s="19" t="s">
         <v>28</v>
       </c>
       <c r="I16" s="48" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
@@ -1131,7 +1144,7 @@
         <v>44976</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G17" s="24"/>
       <c r="H17" s="24"/>
@@ -1139,9 +1152,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
-      <c r="B18" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="B18" s="18"/>
       <c r="C18" s="59"/>
       <c r="D18" t="s">
         <v>15</v>
@@ -1149,14 +1160,16 @@
       <c r="E18" s="20">
         <v>44978</v>
       </c>
-      <c r="F18" s="51" t="s">
-        <v>87</v>
+      <c r="F18" s="66" t="s">
+        <v>77</v>
       </c>
       <c r="I18" s="11"/>
     </row>
     <row r="19" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="12"/>
-      <c r="B19" s="13"/>
+      <c r="B19" s="19" t="s">
+        <v>12</v>
+      </c>
       <c r="C19" s="60"/>
       <c r="D19" s="13" t="s">
         <v>17</v>
@@ -1164,20 +1177,18 @@
       <c r="E19" s="21">
         <v>44980</v>
       </c>
-      <c r="F19" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>39</v>
-      </c>
+      <c r="F19" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="G19" s="19"/>
       <c r="H19" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I19" s="48" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="58">
@@ -1189,11 +1200,11 @@
       <c r="E20" s="22">
         <v>44983</v>
       </c>
-      <c r="F20" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>43</v>
+      <c r="F20" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>86</v>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="9"/>
@@ -1208,7 +1219,7 @@
         <v>44985</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G21" s="18" t="s">
         <v>39</v>
@@ -1226,16 +1237,16 @@
         <v>44986</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H22" s="19" t="s">
         <v>34</v>
       </c>
       <c r="I22" s="48" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
@@ -1251,10 +1262,10 @@
         <v>44989</v>
       </c>
       <c r="F23" s="55" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H23" s="8"/>
       <c r="I23" s="9"/>
@@ -1270,10 +1281,10 @@
         <v>44991</v>
       </c>
       <c r="F24" s="56" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G24" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I24" s="11"/>
     </row>
@@ -1290,11 +1301,11 @@
         <v>44993</v>
       </c>
       <c r="F25" s="52" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G25" s="13"/>
       <c r="H25" s="19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I25" s="48" t="s">
         <v>34</v>
@@ -1317,7 +1328,7 @@
         <v>44996</v>
       </c>
       <c r="F26" s="26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G26" s="24"/>
       <c r="H26" s="24"/>
@@ -1338,7 +1349,7 @@
         <v>44998</v>
       </c>
       <c r="F27" s="31" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G27" s="29"/>
       <c r="H27" s="29"/>
@@ -1359,7 +1370,7 @@
         <v>45000</v>
       </c>
       <c r="F28" s="36" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G28" s="34"/>
       <c r="H28" s="34"/>
@@ -1378,10 +1389,10 @@
         <v>45003</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H29" s="8"/>
       <c r="I29" s="9"/>
@@ -1396,10 +1407,10 @@
         <v>45005</v>
       </c>
       <c r="F30" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G30" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I30" s="11"/>
     </row>
@@ -1414,16 +1425,16 @@
         <v>45007</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H31" s="19" t="s">
         <v>38</v>
       </c>
       <c r="I31" s="48" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
@@ -1457,10 +1468,10 @@
         <v>45012</v>
       </c>
       <c r="F33" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G33" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I33" s="11"/>
     </row>
@@ -1475,10 +1486,10 @@
         <v>45014</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H34" s="19" t="s">
         <v>14</v>
@@ -1500,10 +1511,10 @@
         <v>45017</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H35" s="8"/>
       <c r="I35" s="9"/>
@@ -1518,7 +1529,7 @@
         <v>45019</v>
       </c>
       <c r="F36" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I36" s="11"/>
     </row>
@@ -1535,12 +1546,12 @@
         <v>45021</v>
       </c>
       <c r="F37" s="52" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G37" s="13"/>
       <c r="H37" s="13"/>
       <c r="I37" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
@@ -1556,10 +1567,10 @@
         <v>45024</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H38" s="8"/>
       <c r="I38" s="9"/>
@@ -1574,10 +1585,10 @@
         <v>45026</v>
       </c>
       <c r="F39" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G39" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I39" s="11"/>
     </row>
@@ -1601,7 +1612,7 @@
       <c r="G40" s="34"/>
       <c r="H40" s="34"/>
       <c r="I40" s="53" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
@@ -1621,10 +1632,10 @@
         <v>45031</v>
       </c>
       <c r="F41" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G41" s="24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H41" s="24"/>
       <c r="I41" s="27"/>
@@ -1639,7 +1650,7 @@
         <v>45033</v>
       </c>
       <c r="F42" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I42" s="11"/>
     </row>
@@ -1656,12 +1667,12 @@
         <v>45035</v>
       </c>
       <c r="F43" s="52" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G43" s="13"/>
       <c r="H43" s="13"/>
       <c r="I43" s="48" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
@@ -1679,7 +1690,7 @@
         <v>45038</v>
       </c>
       <c r="F44" s="39" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
@@ -1695,7 +1706,7 @@
         <v>45040</v>
       </c>
       <c r="F45" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I45" s="11"/>
     </row>
@@ -1733,7 +1744,7 @@
         <v>45038</v>
       </c>
       <c r="F47" s="39" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
@@ -1756,7 +1767,7 @@
         <v>45040</v>
       </c>
       <c r="F48" s="44" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G48" s="41"/>
       <c r="H48" s="41"/>
@@ -1777,7 +1788,7 @@
         <v>45042</v>
       </c>
       <c r="F49" s="46" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G49" s="43"/>
       <c r="H49" s="43"/>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Westfield/classes/CAIS117-S24/website/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B323188F-231F-BC48-AC83-F59FB51C8D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089254DD-B67C-6148-91E4-8E2AC656F76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11300" yWindow="500" windowWidth="24440" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="56940" yWindow="1420" windowWidth="21720" windowHeight="23920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sched" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="91">
   <si>
     <t>Date</t>
   </si>
@@ -245,9 +245,6 @@
     <t>NO CLASS - Marathon Monday</t>
   </si>
   <si>
-    <t>NO CLASS - President's Day</t>
-  </si>
-  <si>
     <t>q01</t>
   </si>
   <si>
@@ -293,14 +290,22 @@
     <t>More functions</t>
   </si>
   <si>
-    <t>Ch5</t>
-  </si>
-  <si>
     <t>While loops</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Documentation / Debugging </t>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Documentation / Debugging</t>
+  </si>
+  <si>
+    <t>ic02</t>
+  </si>
+  <si>
+    <t>ic03</t>
+  </si>
+  <si>
+    <t>Flex Day - TBD</t>
   </si>
 </sst>
 </file>
@@ -487,7 +492,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -552,6 +557,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -570,13 +581,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -795,7 +805,7 @@
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -839,7 +849,7 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="15"/>
       <c r="B2" s="17"/>
-      <c r="C2" s="58">
+      <c r="C2" s="60">
         <v>1</v>
       </c>
       <c r="D2" s="8"/>
@@ -852,7 +862,7 @@
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="16"/>
       <c r="B3" s="18"/>
-      <c r="C3" s="59"/>
+      <c r="C3" s="61"/>
       <c r="D3" t="s">
         <v>15</v>
       </c>
@@ -867,7 +877,7 @@
     <row r="4" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
       <c r="B4" s="19"/>
-      <c r="C4" s="60"/>
+      <c r="C4" s="62"/>
       <c r="D4" s="13" t="s">
         <v>17</v>
       </c>
@@ -888,7 +898,7 @@
       <c r="B5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="58">
+      <c r="C5" s="60">
         <v>2</v>
       </c>
       <c r="D5" s="8" t="s">
@@ -909,7 +919,7 @@
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="10"/>
       <c r="B6" s="18"/>
-      <c r="C6" s="59"/>
+      <c r="C6" s="61"/>
       <c r="D6" t="s">
         <v>15</v>
       </c>
@@ -917,16 +927,16 @@
         <v>44950</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I6" s="57" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="60"/>
+      <c r="C7" s="62"/>
       <c r="D7" s="13" t="s">
         <v>17</v>
       </c>
@@ -940,14 +950,14 @@
         <v>25</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I7" s="48"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="58">
+      <c r="C8" s="60">
         <v>3</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -967,7 +977,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
-      <c r="C9" s="59"/>
+      <c r="C9" s="61"/>
       <c r="D9" t="s">
         <v>15</v>
       </c>
@@ -985,7 +995,7 @@
     <row r="10" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12"/>
       <c r="B10" s="13"/>
-      <c r="C10" s="60"/>
+      <c r="C10" s="62"/>
       <c r="D10" s="13" t="s">
         <v>17</v>
       </c>
@@ -1002,13 +1012,13 @@
         <v>20</v>
       </c>
       <c r="I10" s="48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7"/>
       <c r="B11" s="17"/>
-      <c r="C11" s="58">
+      <c r="C11" s="60">
         <v>4</v>
       </c>
       <c r="D11" s="8" t="s">
@@ -1018,9 +1028,9 @@
         <v>44962</v>
       </c>
       <c r="F11" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="G11" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" s="58" t="s">
         <v>42</v>
       </c>
       <c r="H11" s="8"/>
@@ -1031,7 +1041,7 @@
       <c r="B12" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="59"/>
+      <c r="C12" s="61"/>
       <c r="D12" t="s">
         <v>15</v>
       </c>
@@ -1041,12 +1051,14 @@
       <c r="F12" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="11"/>
+      <c r="I12" s="57" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
-      <c r="C13" s="60"/>
+      <c r="C13" s="62"/>
       <c r="D13" s="13" t="s">
         <v>17</v>
       </c>
@@ -1060,7 +1072,7 @@
         <v>33</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I13" s="48" t="s">
         <v>20</v>
@@ -1069,7 +1081,7 @@
     <row r="14" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="58">
+      <c r="C14" s="60">
         <v>5</v>
       </c>
       <c r="D14" s="8" t="s">
@@ -1078,10 +1090,10 @@
       <c r="E14" s="22">
         <v>44969</v>
       </c>
-      <c r="F14" s="65" t="s">
+      <c r="F14" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="64" t="s">
+      <c r="G14" s="58" t="s">
         <v>41</v>
       </c>
       <c r="H14" s="8"/>
@@ -1089,7 +1101,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
-      <c r="C15" s="59"/>
+      <c r="C15" s="61"/>
       <c r="D15" t="s">
         <v>15</v>
       </c>
@@ -1097,7 +1109,7 @@
         <v>44971</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G15" t="s">
         <v>43</v>
@@ -1107,7 +1119,7 @@
     <row r="16" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
       <c r="B16" s="13"/>
-      <c r="C16" s="60"/>
+      <c r="C16" s="62"/>
       <c r="D16" s="13" t="s">
         <v>17</v>
       </c>
@@ -1115,7 +1127,7 @@
         <v>44973</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G16" s="19" t="s">
         <v>43</v>
@@ -1124,65 +1136,65 @@
         <v>28</v>
       </c>
       <c r="I16" s="48" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="58">
+      <c r="A17" s="66"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="60">
         <v>6</v>
       </c>
-      <c r="D17" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="25">
-        <v>44976</v>
-      </c>
-      <c r="F17" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="27"/>
+      <c r="D17" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="68">
+        <v>45342</v>
+      </c>
+      <c r="F17" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="70"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="59"/>
+      <c r="B18" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="61"/>
       <c r="D18" t="s">
         <v>15</v>
       </c>
       <c r="E18" s="20">
         <v>44978</v>
       </c>
-      <c r="F18" s="66" t="s">
-        <v>77</v>
-      </c>
-      <c r="I18" s="11"/>
+      <c r="F18" s="71" t="s">
+        <v>87</v>
+      </c>
+      <c r="I18" s="57" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="19" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="12"/>
-      <c r="B19" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="60"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="62"/>
       <c r="D19" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E19" s="21">
         <v>44980</v>
       </c>
-      <c r="F19" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="G19" s="19"/>
+      <c r="F19" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>39</v>
+      </c>
       <c r="H19" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I19" s="48" t="s">
         <v>28</v>
@@ -1191,7 +1203,7 @@
     <row r="20" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="58">
+      <c r="C20" s="60">
         <v>7</v>
       </c>
       <c r="D20" s="8" t="s">
@@ -1200,18 +1212,18 @@
       <c r="E20" s="22">
         <v>44983</v>
       </c>
-      <c r="F20" s="65" t="s">
-        <v>87</v>
+      <c r="F20" s="59" t="s">
+        <v>77</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="9"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="10"/>
-      <c r="C21" s="59"/>
+      <c r="C21" s="61"/>
       <c r="D21" t="s">
         <v>15</v>
       </c>
@@ -1219,40 +1231,40 @@
         <v>44985</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I21" s="11"/>
     </row>
     <row r="22" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12"/>
       <c r="B22" s="13"/>
-      <c r="C22" s="60"/>
+      <c r="C22" s="62"/>
       <c r="D22" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E22" s="21">
         <v>44986</v>
       </c>
-      <c r="F22" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>45</v>
+      <c r="F22" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="H22" s="19" t="s">
         <v>34</v>
       </c>
       <c r="I22" s="48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
-      <c r="C23" s="58">
+      <c r="C23" s="60">
         <v>8</v>
       </c>
       <c r="D23" s="8" t="s">
@@ -1262,7 +1274,7 @@
         <v>44989</v>
       </c>
       <c r="F23" s="55" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>47</v>
@@ -1273,7 +1285,7 @@
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
       <c r="B24" s="18"/>
-      <c r="C24" s="59"/>
+      <c r="C24" s="61"/>
       <c r="D24" t="s">
         <v>15</v>
       </c>
@@ -1281,10 +1293,7 @@
         <v>44991</v>
       </c>
       <c r="F24" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="G24" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="I24" s="11"/>
     </row>
@@ -1293,7 +1302,7 @@
       <c r="B25" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="60"/>
+      <c r="C25" s="62"/>
       <c r="D25" s="13" t="s">
         <v>17</v>
       </c>
@@ -1301,11 +1310,11 @@
         <v>44993</v>
       </c>
       <c r="F25" s="52" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G25" s="13"/>
       <c r="H25" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I25" s="48" t="s">
         <v>34</v>
@@ -1318,7 +1327,7 @@
       <c r="B26" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="61">
+      <c r="C26" s="63">
         <v>9</v>
       </c>
       <c r="D26" s="24" t="s">
@@ -1341,7 +1350,7 @@
       <c r="B27" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="62"/>
+      <c r="C27" s="64"/>
       <c r="D27" s="29" t="s">
         <v>15</v>
       </c>
@@ -1362,7 +1371,7 @@
       <c r="B28" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="63"/>
+      <c r="C28" s="65"/>
       <c r="D28" s="34" t="s">
         <v>17</v>
       </c>
@@ -1379,7 +1388,7 @@
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="7"/>
       <c r="B29" s="8"/>
-      <c r="C29" s="58">
+      <c r="C29" s="60">
         <v>10</v>
       </c>
       <c r="D29" s="8" t="s">
@@ -1399,7 +1408,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="10"/>
-      <c r="C30" s="59"/>
+      <c r="C30" s="61"/>
       <c r="D30" t="s">
         <v>15</v>
       </c>
@@ -1417,7 +1426,7 @@
     <row r="31" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
-      <c r="C31" s="60"/>
+      <c r="C31" s="62"/>
       <c r="D31" s="13" t="s">
         <v>17</v>
       </c>
@@ -1434,7 +1443,7 @@
         <v>38</v>
       </c>
       <c r="I31" s="48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
@@ -1442,7 +1451,7 @@
       <c r="B32" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="58">
+      <c r="C32" s="60">
         <v>11</v>
       </c>
       <c r="D32" s="8" t="s">
@@ -1460,7 +1469,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="10"/>
-      <c r="C33" s="59"/>
+      <c r="C33" s="61"/>
       <c r="D33" t="s">
         <v>15</v>
       </c>
@@ -1478,7 +1487,7 @@
     <row r="34" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="12"/>
       <c r="B34" s="13"/>
-      <c r="C34" s="60"/>
+      <c r="C34" s="62"/>
       <c r="D34" s="13" t="s">
         <v>17</v>
       </c>
@@ -1501,7 +1510,7 @@
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="7"/>
       <c r="B35" s="8"/>
-      <c r="C35" s="58">
+      <c r="C35" s="60">
         <v>12</v>
       </c>
       <c r="D35" s="8" t="s">
@@ -1521,7 +1530,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="10"/>
-      <c r="C36" s="59"/>
+      <c r="C36" s="61"/>
       <c r="D36" t="s">
         <v>15</v>
       </c>
@@ -1529,7 +1538,7 @@
         <v>45019</v>
       </c>
       <c r="F36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I36" s="11"/>
     </row>
@@ -1538,7 +1547,7 @@
       <c r="B37" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="60"/>
+      <c r="C37" s="62"/>
       <c r="D37" s="13" t="s">
         <v>17</v>
       </c>
@@ -1557,7 +1566,7 @@
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="7"/>
       <c r="B38" s="8"/>
-      <c r="C38" s="58">
+      <c r="C38" s="60">
         <v>13</v>
       </c>
       <c r="D38" s="8" t="s">
@@ -1577,7 +1586,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="10"/>
-      <c r="C39" s="59"/>
+      <c r="C39" s="61"/>
       <c r="D39" t="s">
         <v>15</v>
       </c>
@@ -1599,7 +1608,7 @@
       <c r="B40" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="60"/>
+      <c r="C40" s="62"/>
       <c r="D40" s="34" t="s">
         <v>17</v>
       </c>
@@ -1622,7 +1631,7 @@
       <c r="B41" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="58">
+      <c r="C41" s="60">
         <v>14</v>
       </c>
       <c r="D41" s="24" t="s">
@@ -1642,7 +1651,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" s="10"/>
-      <c r="C42" s="59"/>
+      <c r="C42" s="61"/>
       <c r="D42" t="s">
         <v>15</v>
       </c>
@@ -1650,7 +1659,7 @@
         <v>45033</v>
       </c>
       <c r="F42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I42" s="11"/>
     </row>
@@ -1659,7 +1668,7 @@
       <c r="B43" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C43" s="60"/>
+      <c r="C43" s="62"/>
       <c r="D43" s="13" t="s">
         <v>17</v>
       </c>
@@ -1667,7 +1676,7 @@
         <v>45035</v>
       </c>
       <c r="F43" s="52" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G43" s="13"/>
       <c r="H43" s="13"/>
@@ -1680,7 +1689,7 @@
       <c r="B44" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="58">
+      <c r="C44" s="60">
         <v>15</v>
       </c>
       <c r="D44" s="8" t="s">
@@ -1698,7 +1707,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" s="10"/>
-      <c r="C45" s="59"/>
+      <c r="C45" s="61"/>
       <c r="D45" t="s">
         <v>15</v>
       </c>
@@ -1715,7 +1724,7 @@
       <c r="B46" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="60"/>
+      <c r="C46" s="62"/>
       <c r="D46" s="13" t="s">
         <v>17</v>
       </c>
@@ -1734,7 +1743,7 @@
       <c r="B47" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C47" s="58">
+      <c r="C47" s="60">
         <v>16</v>
       </c>
       <c r="D47" s="8" t="s">
@@ -1759,7 +1768,7 @@
       <c r="B48" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="59"/>
+      <c r="C48" s="61"/>
       <c r="D48" t="s">
         <v>15</v>
       </c>
@@ -1780,7 +1789,7 @@
       <c r="B49" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C49" s="60"/>
+      <c r="C49" s="62"/>
       <c r="D49" s="13" t="s">
         <v>17</v>
       </c>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Westfield/classes/CAIS117-S24/website/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089254DD-B67C-6148-91E4-8E2AC656F76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781616D0-60A2-D442-A551-6702EDFD5D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="56940" yWindow="1420" windowWidth="21720" windowHeight="23920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="91">
   <si>
     <t>Date</t>
   </si>
@@ -305,7 +305,7 @@
     <t>ic03</t>
   </si>
   <si>
-    <t>Flex Day - TBD</t>
+    <t>CLASS CANCELED - Review material</t>
   </si>
 </sst>
 </file>
@@ -492,7 +492,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -581,12 +581,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -805,7 +800,7 @@
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D22" sqref="D22:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1140,23 +1135,23 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="66"/>
-      <c r="B17" s="67"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
       <c r="C17" s="60">
         <v>6</v>
       </c>
-      <c r="D17" s="69" t="s">
+      <c r="D17" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="E17" s="68">
+      <c r="E17" s="22">
         <v>45342</v>
       </c>
-      <c r="F17" s="69" t="s">
+      <c r="F17" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="70"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="9"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
@@ -1170,7 +1165,7 @@
       <c r="E18" s="20">
         <v>44978</v>
       </c>
-      <c r="F18" s="71" t="s">
+      <c r="F18" s="51" t="s">
         <v>87</v>
       </c>
       <c r="I18" s="57" t="s">
@@ -1239,25 +1234,27 @@
       <c r="I21" s="11"/>
     </row>
     <row r="22" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="12"/>
-      <c r="B22" s="13"/>
+      <c r="A22" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="36" t="s">
+        <v>7</v>
+      </c>
       <c r="C22" s="62"/>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="35">
         <v>44986</v>
       </c>
-      <c r="F22" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="H22" s="19" t="s">
+      <c r="F22" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="I22" s="48" t="s">
+      <c r="I22" s="53" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1274,7 +1271,7 @@
         <v>44989</v>
       </c>
       <c r="F23" s="55" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>47</v>
@@ -1293,7 +1290,10 @@
         <v>44991</v>
       </c>
       <c r="F24" s="56" t="s">
-        <v>90</v>
+        <v>48</v>
+      </c>
+      <c r="G24" s="66" t="s">
+        <v>47</v>
       </c>
       <c r="I24" s="11"/>
     </row>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Westfield/classes/CAIS117-S24/website/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781616D0-60A2-D442-A551-6702EDFD5D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20FBE71-9ECD-7D4E-ACE3-9ECA874276C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="56940" yWindow="1420" windowWidth="21720" windowHeight="23920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20280" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sched" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
   <si>
     <t>Date</t>
   </si>
@@ -269,9 +269,6 @@
     <t xml:space="preserve">For loops </t>
   </si>
   <si>
-    <t xml:space="preserve">Code reuse </t>
-  </si>
-  <si>
     <t xml:space="preserve">Developing Applications </t>
   </si>
   <si>
@@ -306,6 +303,12 @@
   </si>
   <si>
     <t>CLASS CANCELED - Review material</t>
+  </si>
+  <si>
+    <t>hw03, ic04</t>
+  </si>
+  <si>
+    <t>Recursion Lab</t>
   </si>
 </sst>
 </file>
@@ -492,7 +495,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -581,7 +584,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -799,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37E44A5-0A5F-414A-B4D4-809AE35C85CF}">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22:I22"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -922,10 +924,10 @@
         <v>44950</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I6" s="57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -1023,7 +1025,7 @@
         <v>44962</v>
       </c>
       <c r="F11" s="55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G11" s="58" t="s">
         <v>42</v>
@@ -1047,7 +1049,7 @@
         <v>35</v>
       </c>
       <c r="I12" s="57" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -1104,7 +1106,7 @@
         <v>44971</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G15" t="s">
         <v>43</v>
@@ -1122,7 +1124,7 @@
         <v>44973</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G16" s="19" t="s">
         <v>43</v>
@@ -1141,7 +1143,7 @@
         <v>6</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E17" s="22">
         <v>45342</v>
@@ -1166,10 +1168,10 @@
         <v>44978</v>
       </c>
       <c r="F18" s="51" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I18" s="57" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -1183,7 +1185,7 @@
         <v>44980</v>
       </c>
       <c r="F19" s="56" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G19" s="19" t="s">
         <v>39</v>
@@ -1248,7 +1250,7 @@
         <v>44986</v>
       </c>
       <c r="F22" s="36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G22" s="36"/>
       <c r="H22" s="36" t="s">
@@ -1292,7 +1294,7 @@
       <c r="F24" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="G24" s="66" t="s">
+      <c r="G24" t="s">
         <v>47</v>
       </c>
       <c r="I24" s="11"/>
@@ -1310,14 +1312,14 @@
         <v>44993</v>
       </c>
       <c r="F25" s="52" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G25" s="13"/>
       <c r="H25" s="19" t="s">
         <v>73</v>
       </c>
       <c r="I25" s="48" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
@@ -1538,7 +1540,7 @@
         <v>45019</v>
       </c>
       <c r="F36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I36" s="11"/>
     </row>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Westfield/classes/CAIS117-S24/website/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20FBE71-9ECD-7D4E-ACE3-9ECA874276C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCCEF843-FD8A-904D-ACFD-7149E1504095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="20280" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6480" yWindow="500" windowWidth="20280" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sched" sheetId="2" r:id="rId1"/>
@@ -801,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37E44A5-0A5F-414A-B4D4-809AE35C85CF}">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Westfield/classes/CAIS117-S24/website/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCCEF843-FD8A-904D-ACFD-7149E1504095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97D7BFD-447D-1849-8674-0CC0817D2FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6480" yWindow="500" windowWidth="20280" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31200" yWindow="940" windowWidth="20700" windowHeight="19700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sched" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="94">
   <si>
     <t>Date</t>
   </si>
@@ -206,9 +206,6 @@
     <t>Interaction</t>
   </si>
   <si>
-    <t>proj-proposal</t>
-  </si>
-  <si>
     <t>Paper prototyping</t>
   </si>
   <si>
@@ -230,9 +227,6 @@
     <t>Advanced Topics - Visual Analytics</t>
   </si>
   <si>
-    <t>proj-prototypeII</t>
-  </si>
-  <si>
     <t xml:space="preserve">Final Project Work Session </t>
   </si>
   <si>
@@ -309,6 +303,18 @@
   </si>
   <si>
     <t>Recursion Lab</t>
+  </si>
+  <si>
+    <t>ic05</t>
+  </si>
+  <si>
+    <t>proj-proposal, ic06</t>
+  </si>
+  <si>
+    <t>proj-prototypeII, ic07</t>
+  </si>
+  <si>
+    <t>ic08</t>
   </si>
 </sst>
 </file>
@@ -801,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37E44A5-0A5F-414A-B4D4-809AE35C85CF}">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -924,10 +930,10 @@
         <v>44950</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I6" s="57" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -947,7 +953,7 @@
         <v>25</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I7" s="48"/>
     </row>
@@ -1009,7 +1015,7 @@
         <v>20</v>
       </c>
       <c r="I10" s="48" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.15">
@@ -1025,7 +1031,7 @@
         <v>44962</v>
       </c>
       <c r="F11" s="55" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G11" s="58" t="s">
         <v>42</v>
@@ -1049,7 +1055,7 @@
         <v>35</v>
       </c>
       <c r="I12" s="57" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -1069,7 +1075,7 @@
         <v>33</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I13" s="48" t="s">
         <v>20</v>
@@ -1106,7 +1112,7 @@
         <v>44971</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G15" t="s">
         <v>43</v>
@@ -1124,7 +1130,7 @@
         <v>44973</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G16" s="19" t="s">
         <v>43</v>
@@ -1133,7 +1139,7 @@
         <v>28</v>
       </c>
       <c r="I16" s="48" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
@@ -1143,13 +1149,13 @@
         <v>6</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E17" s="22">
         <v>45342</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
@@ -1168,10 +1174,10 @@
         <v>44978</v>
       </c>
       <c r="F18" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="I18" s="57" t="s">
         <v>86</v>
-      </c>
-      <c r="I18" s="57" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -1185,13 +1191,13 @@
         <v>44980</v>
       </c>
       <c r="F19" s="56" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G19" s="19" t="s">
         <v>39</v>
       </c>
       <c r="H19" s="19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I19" s="48" t="s">
         <v>28</v>
@@ -1210,7 +1216,7 @@
         <v>44983</v>
       </c>
       <c r="F20" s="59" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G20" s="17" t="s">
         <v>39</v>
@@ -1250,14 +1256,14 @@
         <v>44986</v>
       </c>
       <c r="F22" s="36" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G22" s="36"/>
       <c r="H22" s="36" t="s">
         <v>34</v>
       </c>
       <c r="I22" s="53" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
@@ -1312,14 +1318,14 @@
         <v>44993</v>
       </c>
       <c r="F25" s="52" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G25" s="13"/>
       <c r="H25" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I25" s="48" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
@@ -1339,7 +1345,7 @@
         <v>44996</v>
       </c>
       <c r="F26" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G26" s="24"/>
       <c r="H26" s="24"/>
@@ -1360,7 +1366,7 @@
         <v>44998</v>
       </c>
       <c r="F27" s="31" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G27" s="29"/>
       <c r="H27" s="29"/>
@@ -1381,7 +1387,7 @@
         <v>45000</v>
       </c>
       <c r="F28" s="36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G28" s="34"/>
       <c r="H28" s="34"/>
@@ -1445,7 +1451,7 @@
         <v>38</v>
       </c>
       <c r="I31" s="48" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
@@ -1467,7 +1473,9 @@
       </c>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
-      <c r="I32" s="9"/>
+      <c r="I32" s="49" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="10"/>
@@ -1540,7 +1548,7 @@
         <v>45019</v>
       </c>
       <c r="F36" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I36" s="11"/>
     </row>
@@ -1557,12 +1565,12 @@
         <v>45021</v>
       </c>
       <c r="F37" s="52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G37" s="13"/>
       <c r="H37" s="13"/>
-      <c r="I37" s="14" t="s">
-        <v>57</v>
+      <c r="I37" s="48" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
@@ -1578,10 +1586,10 @@
         <v>45024</v>
       </c>
       <c r="F38" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G38" s="17" t="s">
         <v>62</v>
-      </c>
-      <c r="G38" s="17" t="s">
-        <v>63</v>
       </c>
       <c r="H38" s="8"/>
       <c r="I38" s="9"/>
@@ -1596,10 +1604,10 @@
         <v>45026</v>
       </c>
       <c r="F39" t="s">
+        <v>58</v>
+      </c>
+      <c r="G39" t="s">
         <v>59</v>
-      </c>
-      <c r="G39" t="s">
-        <v>60</v>
       </c>
       <c r="I39" s="11"/>
     </row>
@@ -1623,7 +1631,7 @@
       <c r="G40" s="34"/>
       <c r="H40" s="34"/>
       <c r="I40" s="53" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
@@ -1643,10 +1651,10 @@
         <v>45031</v>
       </c>
       <c r="F41" s="26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G41" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H41" s="24"/>
       <c r="I41" s="27"/>
@@ -1661,7 +1669,7 @@
         <v>45033</v>
       </c>
       <c r="F42" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I42" s="11"/>
     </row>
@@ -1678,12 +1686,12 @@
         <v>45035</v>
       </c>
       <c r="F43" s="52" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G43" s="13"/>
       <c r="H43" s="13"/>
       <c r="I43" s="48" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
@@ -1701,7 +1709,7 @@
         <v>45038</v>
       </c>
       <c r="F44" s="39" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
@@ -1717,7 +1725,7 @@
         <v>45040</v>
       </c>
       <c r="F45" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I45" s="11"/>
     </row>
@@ -1738,7 +1746,9 @@
       </c>
       <c r="G46" s="13"/>
       <c r="H46" s="13"/>
-      <c r="I46" s="14"/>
+      <c r="I46" s="48" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47" s="7"/>
@@ -1755,7 +1765,7 @@
         <v>45038</v>
       </c>
       <c r="F47" s="39" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
@@ -1778,7 +1788,7 @@
         <v>45040</v>
       </c>
       <c r="F48" s="44" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G48" s="41"/>
       <c r="H48" s="41"/>
@@ -1799,7 +1809,7 @@
         <v>45042</v>
       </c>
       <c r="F49" s="46" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G49" s="43"/>
       <c r="H49" s="43"/>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Westfield/classes/CAIS117-S24/website/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97D7BFD-447D-1849-8674-0CC0817D2FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80764E5-B8D8-BC47-B6B5-BD3532EDAEB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31200" yWindow="940" windowWidth="20700" windowHeight="19700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sched" sheetId="2" r:id="rId1"/>
@@ -206,9 +206,6 @@
     <t>Interaction</t>
   </si>
   <si>
-    <t>Paper prototyping</t>
-  </si>
-  <si>
     <t>Introduction to algorithms</t>
   </si>
   <si>
@@ -315,6 +312,9 @@
   </si>
   <si>
     <t>ic08</t>
+  </si>
+  <si>
+    <t>Paper prototyping &amp; Proposal check-in</t>
   </si>
 </sst>
 </file>
@@ -807,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37E44A5-0A5F-414A-B4D4-809AE35C85CF}">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -930,10 +930,10 @@
         <v>44950</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I6" s="57" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -953,7 +953,7 @@
         <v>25</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I7" s="48"/>
     </row>
@@ -1015,7 +1015,7 @@
         <v>20</v>
       </c>
       <c r="I10" s="48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.15">
@@ -1031,7 +1031,7 @@
         <v>44962</v>
       </c>
       <c r="F11" s="55" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G11" s="58" t="s">
         <v>42</v>
@@ -1055,7 +1055,7 @@
         <v>35</v>
       </c>
       <c r="I12" s="57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -1075,7 +1075,7 @@
         <v>33</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I13" s="48" t="s">
         <v>20</v>
@@ -1112,7 +1112,7 @@
         <v>44971</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s">
         <v>43</v>
@@ -1130,7 +1130,7 @@
         <v>44973</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G16" s="19" t="s">
         <v>43</v>
@@ -1139,7 +1139,7 @@
         <v>28</v>
       </c>
       <c r="I16" s="48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
@@ -1149,13 +1149,13 @@
         <v>6</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E17" s="22">
         <v>45342</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
@@ -1174,10 +1174,10 @@
         <v>44978</v>
       </c>
       <c r="F18" s="51" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I18" s="57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -1191,13 +1191,13 @@
         <v>44980</v>
       </c>
       <c r="F19" s="56" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G19" s="19" t="s">
         <v>39</v>
       </c>
       <c r="H19" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I19" s="48" t="s">
         <v>28</v>
@@ -1216,7 +1216,7 @@
         <v>44983</v>
       </c>
       <c r="F20" s="59" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G20" s="17" t="s">
         <v>39</v>
@@ -1256,14 +1256,14 @@
         <v>44986</v>
       </c>
       <c r="F22" s="36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G22" s="36"/>
       <c r="H22" s="36" t="s">
         <v>34</v>
       </c>
       <c r="I22" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
@@ -1318,14 +1318,14 @@
         <v>44993</v>
       </c>
       <c r="F25" s="52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G25" s="13"/>
       <c r="H25" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I25" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
@@ -1345,7 +1345,7 @@
         <v>44996</v>
       </c>
       <c r="F26" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G26" s="24"/>
       <c r="H26" s="24"/>
@@ -1366,7 +1366,7 @@
         <v>44998</v>
       </c>
       <c r="F27" s="31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G27" s="29"/>
       <c r="H27" s="29"/>
@@ -1387,7 +1387,7 @@
         <v>45000</v>
       </c>
       <c r="F28" s="36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G28" s="34"/>
       <c r="H28" s="34"/>
@@ -1451,7 +1451,7 @@
         <v>38</v>
       </c>
       <c r="I31" s="48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
@@ -1474,7 +1474,7 @@
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
       <c r="I32" s="49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
@@ -1548,7 +1548,7 @@
         <v>45019</v>
       </c>
       <c r="F36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I36" s="11"/>
     </row>
@@ -1565,12 +1565,12 @@
         <v>45021</v>
       </c>
       <c r="F37" s="52" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="G37" s="13"/>
       <c r="H37" s="13"/>
       <c r="I37" s="48" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
@@ -1586,10 +1586,10 @@
         <v>45024</v>
       </c>
       <c r="F38" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G38" s="17" t="s">
         <v>61</v>
-      </c>
-      <c r="G38" s="17" t="s">
-        <v>62</v>
       </c>
       <c r="H38" s="8"/>
       <c r="I38" s="9"/>
@@ -1604,10 +1604,10 @@
         <v>45026</v>
       </c>
       <c r="F39" t="s">
+        <v>57</v>
+      </c>
+      <c r="G39" t="s">
         <v>58</v>
-      </c>
-      <c r="G39" t="s">
-        <v>59</v>
       </c>
       <c r="I39" s="11"/>
     </row>
@@ -1631,7 +1631,7 @@
       <c r="G40" s="34"/>
       <c r="H40" s="34"/>
       <c r="I40" s="53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
@@ -1651,10 +1651,10 @@
         <v>45031</v>
       </c>
       <c r="F41" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G41" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H41" s="24"/>
       <c r="I41" s="27"/>
@@ -1669,7 +1669,7 @@
         <v>45033</v>
       </c>
       <c r="F42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I42" s="11"/>
     </row>
@@ -1686,12 +1686,12 @@
         <v>45035</v>
       </c>
       <c r="F43" s="52" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G43" s="13"/>
       <c r="H43" s="13"/>
       <c r="I43" s="48" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
@@ -1709,7 +1709,7 @@
         <v>45038</v>
       </c>
       <c r="F44" s="39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
@@ -1725,7 +1725,7 @@
         <v>45040</v>
       </c>
       <c r="F45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I45" s="11"/>
     </row>
@@ -1747,7 +1747,7 @@
       <c r="G46" s="13"/>
       <c r="H46" s="13"/>
       <c r="I46" s="48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
@@ -1765,7 +1765,7 @@
         <v>45038</v>
       </c>
       <c r="F47" s="39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
@@ -1788,7 +1788,7 @@
         <v>45040</v>
       </c>
       <c r="F48" s="44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G48" s="41"/>
       <c r="H48" s="41"/>
@@ -1809,7 +1809,7 @@
         <v>45042</v>
       </c>
       <c r="F49" s="46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G49" s="43"/>
       <c r="H49" s="43"/>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Westfield/classes/CAIS117-S24/website/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80764E5-B8D8-BC47-B6B5-BD3532EDAEB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9CA141-2A32-DF4A-B43B-0CB3A5724033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51740" yWindow="840" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sched" sheetId="2" r:id="rId1"/>
@@ -501,7 +501,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -547,7 +547,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
@@ -590,6 +589,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -807,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37E44A5-0A5F-414A-B4D4-809AE35C85CF}">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -852,7 +859,7 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="15"/>
       <c r="B2" s="17"/>
-      <c r="C2" s="60">
+      <c r="C2" s="59">
         <v>1</v>
       </c>
       <c r="D2" s="8"/>
@@ -865,7 +872,7 @@
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="16"/>
       <c r="B3" s="18"/>
-      <c r="C3" s="61"/>
+      <c r="C3" s="60"/>
       <c r="D3" t="s">
         <v>15</v>
       </c>
@@ -880,7 +887,7 @@
     <row r="4" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
       <c r="B4" s="19"/>
-      <c r="C4" s="62"/>
+      <c r="C4" s="61"/>
       <c r="D4" s="13" t="s">
         <v>17</v>
       </c>
@@ -901,7 +908,7 @@
       <c r="B5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="60">
+      <c r="C5" s="59">
         <v>2</v>
       </c>
       <c r="D5" s="8" t="s">
@@ -910,19 +917,19 @@
       <c r="E5" s="22">
         <v>44948</v>
       </c>
-      <c r="F5" s="50" t="s">
+      <c r="F5" s="49" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>23</v>
       </c>
       <c r="H5" s="8"/>
-      <c r="I5" s="49"/>
+      <c r="I5" s="48"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="10"/>
       <c r="B6" s="18"/>
-      <c r="C6" s="61"/>
+      <c r="C6" s="60"/>
       <c r="D6" t="s">
         <v>15</v>
       </c>
@@ -932,14 +939,14 @@
       <c r="F6" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="I6" s="57" t="s">
+      <c r="I6" s="56" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="62"/>
+      <c r="C7" s="61"/>
       <c r="D7" s="13" t="s">
         <v>17</v>
       </c>
@@ -955,12 +962,12 @@
       <c r="H7" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="I7" s="48"/>
+      <c r="I7" s="47"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="60">
+      <c r="C8" s="59">
         <v>3</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -980,7 +987,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
-      <c r="C9" s="61"/>
+      <c r="C9" s="60"/>
       <c r="D9" t="s">
         <v>15</v>
       </c>
@@ -998,7 +1005,7 @@
     <row r="10" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12"/>
       <c r="B10" s="13"/>
-      <c r="C10" s="62"/>
+      <c r="C10" s="61"/>
       <c r="D10" s="13" t="s">
         <v>17</v>
       </c>
@@ -1014,14 +1021,14 @@
       <c r="H10" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="48" t="s">
+      <c r="I10" s="47" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7"/>
       <c r="B11" s="17"/>
-      <c r="C11" s="60">
+      <c r="C11" s="59">
         <v>4</v>
       </c>
       <c r="D11" s="8" t="s">
@@ -1030,10 +1037,10 @@
       <c r="E11" s="22">
         <v>44962</v>
       </c>
-      <c r="F11" s="55" t="s">
+      <c r="F11" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="G11" s="58" t="s">
+      <c r="G11" s="57" t="s">
         <v>42</v>
       </c>
       <c r="H11" s="8"/>
@@ -1044,24 +1051,24 @@
       <c r="B12" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="61"/>
+      <c r="C12" s="60"/>
       <c r="D12" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="20">
         <v>44964</v>
       </c>
-      <c r="F12" s="51" t="s">
+      <c r="F12" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="57" t="s">
+      <c r="I12" s="56" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
-      <c r="C13" s="62"/>
+      <c r="C13" s="61"/>
       <c r="D13" s="13" t="s">
         <v>17</v>
       </c>
@@ -1077,14 +1084,14 @@
       <c r="H13" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="I13" s="48" t="s">
+      <c r="I13" s="47" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="60">
+      <c r="C14" s="59">
         <v>5</v>
       </c>
       <c r="D14" s="8" t="s">
@@ -1093,10 +1100,10 @@
       <c r="E14" s="22">
         <v>44969</v>
       </c>
-      <c r="F14" s="59" t="s">
+      <c r="F14" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="58" t="s">
+      <c r="G14" s="57" t="s">
         <v>41</v>
       </c>
       <c r="H14" s="8"/>
@@ -1104,7 +1111,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
-      <c r="C15" s="61"/>
+      <c r="C15" s="60"/>
       <c r="D15" t="s">
         <v>15</v>
       </c>
@@ -1122,7 +1129,7 @@
     <row r="16" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
       <c r="B16" s="13"/>
-      <c r="C16" s="62"/>
+      <c r="C16" s="61"/>
       <c r="D16" s="13" t="s">
         <v>17</v>
       </c>
@@ -1138,14 +1145,14 @@
       <c r="H16" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="48" t="s">
+      <c r="I16" s="47" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
-      <c r="C17" s="60">
+      <c r="C17" s="59">
         <v>6</v>
       </c>
       <c r="D17" s="17" t="s">
@@ -1166,31 +1173,31 @@
       <c r="B18" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="61"/>
+      <c r="C18" s="60"/>
       <c r="D18" t="s">
         <v>15</v>
       </c>
       <c r="E18" s="20">
         <v>44978</v>
       </c>
-      <c r="F18" s="51" t="s">
+      <c r="F18" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="I18" s="57" t="s">
+      <c r="I18" s="56" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="12"/>
       <c r="B19" s="19"/>
-      <c r="C19" s="62"/>
+      <c r="C19" s="61"/>
       <c r="D19" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E19" s="21">
         <v>44980</v>
       </c>
-      <c r="F19" s="56" t="s">
+      <c r="F19" s="55" t="s">
         <v>81</v>
       </c>
       <c r="G19" s="19" t="s">
@@ -1199,14 +1206,14 @@
       <c r="H19" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="I19" s="48" t="s">
+      <c r="I19" s="47" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="60">
+      <c r="C20" s="59">
         <v>7</v>
       </c>
       <c r="D20" s="8" t="s">
@@ -1215,7 +1222,7 @@
       <c r="E20" s="22">
         <v>44983</v>
       </c>
-      <c r="F20" s="59" t="s">
+      <c r="F20" s="58" t="s">
         <v>74</v>
       </c>
       <c r="G20" s="17" t="s">
@@ -1226,7 +1233,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="10"/>
-      <c r="C21" s="61"/>
+      <c r="C21" s="60"/>
       <c r="D21" t="s">
         <v>15</v>
       </c>
@@ -1242,13 +1249,13 @@
       <c r="I21" s="11"/>
     </row>
     <row r="22" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="53" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="62"/>
+      <c r="C22" s="61"/>
       <c r="D22" s="34" t="s">
         <v>17</v>
       </c>
@@ -1262,14 +1269,14 @@
       <c r="H22" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="I22" s="53" t="s">
+      <c r="I22" s="52" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
-      <c r="C23" s="60">
+      <c r="C23" s="59">
         <v>8</v>
       </c>
       <c r="D23" s="8" t="s">
@@ -1278,7 +1285,7 @@
       <c r="E23" s="22">
         <v>44989</v>
       </c>
-      <c r="F23" s="55" t="s">
+      <c r="F23" s="54" t="s">
         <v>46</v>
       </c>
       <c r="G23" s="8" t="s">
@@ -1290,14 +1297,14 @@
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
       <c r="B24" s="18"/>
-      <c r="C24" s="61"/>
+      <c r="C24" s="60"/>
       <c r="D24" t="s">
         <v>15</v>
       </c>
       <c r="E24" s="20">
         <v>44991</v>
       </c>
-      <c r="F24" s="56" t="s">
+      <c r="F24" s="55" t="s">
         <v>48</v>
       </c>
       <c r="G24" t="s">
@@ -1310,21 +1317,21 @@
       <c r="B25" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="62"/>
+      <c r="C25" s="61"/>
       <c r="D25" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E25" s="21">
         <v>44993</v>
       </c>
-      <c r="F25" s="52" t="s">
+      <c r="F25" s="51" t="s">
         <v>88</v>
       </c>
       <c r="G25" s="13"/>
       <c r="H25" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="I25" s="48" t="s">
+      <c r="I25" s="47" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1335,7 +1342,7 @@
       <c r="B26" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="63">
+      <c r="C26" s="62">
         <v>9</v>
       </c>
       <c r="D26" s="24" t="s">
@@ -1358,7 +1365,7 @@
       <c r="B27" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="64"/>
+      <c r="C27" s="63"/>
       <c r="D27" s="29" t="s">
         <v>15</v>
       </c>
@@ -1379,7 +1386,7 @@
       <c r="B28" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="65"/>
+      <c r="C28" s="64"/>
       <c r="D28" s="34" t="s">
         <v>17</v>
       </c>
@@ -1396,7 +1403,7 @@
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="7"/>
       <c r="B29" s="8"/>
-      <c r="C29" s="60">
+      <c r="C29" s="59">
         <v>10</v>
       </c>
       <c r="D29" s="8" t="s">
@@ -1416,7 +1423,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="10"/>
-      <c r="C30" s="61"/>
+      <c r="C30" s="60"/>
       <c r="D30" t="s">
         <v>15</v>
       </c>
@@ -1434,7 +1441,7 @@
     <row r="31" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
-      <c r="C31" s="62"/>
+      <c r="C31" s="61"/>
       <c r="D31" s="13" t="s">
         <v>17</v>
       </c>
@@ -1450,7 +1457,7 @@
       <c r="H31" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="I31" s="48" t="s">
+      <c r="I31" s="47" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1459,7 +1466,7 @@
       <c r="B32" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="60">
+      <c r="C32" s="59">
         <v>11</v>
       </c>
       <c r="D32" s="8" t="s">
@@ -1468,18 +1475,18 @@
       <c r="E32" s="22">
         <v>45010</v>
       </c>
-      <c r="F32" s="50" t="s">
+      <c r="F32" s="49" t="s">
         <v>35</v>
       </c>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
-      <c r="I32" s="49" t="s">
+      <c r="I32" s="48" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="10"/>
-      <c r="C33" s="61"/>
+      <c r="C33" s="60"/>
       <c r="D33" t="s">
         <v>15</v>
       </c>
@@ -1497,7 +1504,7 @@
     <row r="34" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="12"/>
       <c r="B34" s="13"/>
-      <c r="C34" s="62"/>
+      <c r="C34" s="61"/>
       <c r="D34" s="13" t="s">
         <v>17</v>
       </c>
@@ -1513,14 +1520,14 @@
       <c r="H34" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="I34" s="48" t="s">
+      <c r="I34" s="47" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="7"/>
       <c r="B35" s="8"/>
-      <c r="C35" s="60">
+      <c r="C35" s="59">
         <v>12</v>
       </c>
       <c r="D35" s="8" t="s">
@@ -1540,7 +1547,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="10"/>
-      <c r="C36" s="61"/>
+      <c r="C36" s="60"/>
       <c r="D36" t="s">
         <v>15</v>
       </c>
@@ -1557,26 +1564,26 @@
       <c r="B37" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="62"/>
+      <c r="C37" s="61"/>
       <c r="D37" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E37" s="21">
         <v>45021</v>
       </c>
-      <c r="F37" s="52" t="s">
+      <c r="F37" s="51" t="s">
         <v>93</v>
       </c>
       <c r="G37" s="13"/>
       <c r="H37" s="13"/>
-      <c r="I37" s="48" t="s">
+      <c r="I37" s="47" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="7"/>
       <c r="B38" s="8"/>
-      <c r="C38" s="60">
+      <c r="C38" s="59">
         <v>13</v>
       </c>
       <c r="D38" s="8" t="s">
@@ -1596,7 +1603,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="10"/>
-      <c r="C39" s="61"/>
+      <c r="C39" s="60"/>
       <c r="D39" t="s">
         <v>15</v>
       </c>
@@ -1612,13 +1619,13 @@
       <c r="I39" s="11"/>
     </row>
     <row r="40" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="54" t="s">
+      <c r="A40" s="53" t="s">
         <v>10</v>
       </c>
       <c r="B40" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="62"/>
+      <c r="C40" s="61"/>
       <c r="D40" s="34" t="s">
         <v>17</v>
       </c>
@@ -1630,7 +1637,7 @@
       </c>
       <c r="G40" s="34"/>
       <c r="H40" s="34"/>
-      <c r="I40" s="53" t="s">
+      <c r="I40" s="52" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1641,7 +1648,7 @@
       <c r="B41" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="60">
+      <c r="C41" s="59">
         <v>14</v>
       </c>
       <c r="D41" s="24" t="s">
@@ -1661,7 +1668,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" s="10"/>
-      <c r="C42" s="61"/>
+      <c r="C42" s="60"/>
       <c r="D42" t="s">
         <v>15</v>
       </c>
@@ -1678,28 +1685,26 @@
       <c r="B43" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C43" s="62"/>
+      <c r="C43" s="61"/>
       <c r="D43" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E43" s="21">
         <v>45035</v>
       </c>
-      <c r="F43" s="52" t="s">
+      <c r="F43" s="51" t="s">
         <v>72</v>
       </c>
       <c r="G43" s="13"/>
       <c r="H43" s="13"/>
-      <c r="I43" s="48" t="s">
+      <c r="I43" s="47" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" s="7"/>
-      <c r="B44" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C44" s="60">
+      <c r="B44" s="17"/>
+      <c r="C44" s="59">
         <v>15</v>
       </c>
       <c r="D44" s="8" t="s">
@@ -1708,16 +1713,18 @@
       <c r="E44" s="22">
         <v>45038</v>
       </c>
-      <c r="F44" s="39" t="s">
-        <v>63</v>
+      <c r="F44" s="49" t="s">
+        <v>35</v>
       </c>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
-      <c r="I44" s="9"/>
+      <c r="I44" s="48" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" s="10"/>
-      <c r="C45" s="61"/>
+      <c r="C45" s="60"/>
       <c r="D45" t="s">
         <v>15</v>
       </c>
@@ -1730,32 +1737,32 @@
       <c r="I45" s="11"/>
     </row>
     <row r="46" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="12"/>
-      <c r="B46" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46" s="62"/>
+      <c r="A46" s="65"/>
+      <c r="B46" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="61"/>
       <c r="D46" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E46" s="21">
         <v>45042</v>
       </c>
-      <c r="F46" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="48" t="s">
-        <v>92</v>
-      </c>
+      <c r="F46" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="G46" s="42"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="69"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A47" s="7"/>
-      <c r="B47" s="8" t="s">
+      <c r="A47" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C47" s="60">
+      <c r="C47" s="59">
         <v>16</v>
       </c>
       <c r="D47" s="8" t="s">
@@ -1764,56 +1771,56 @@
       <c r="E47" s="22">
         <v>45038</v>
       </c>
-      <c r="F47" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="49" t="s">
+      <c r="F47" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="G47" s="71"/>
+      <c r="H47" s="71"/>
+      <c r="I47" s="72" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A48" s="40" t="s">
+      <c r="A48" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B48" s="41" t="s">
+      <c r="B48" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="61"/>
+      <c r="C48" s="60"/>
       <c r="D48" t="s">
         <v>15</v>
       </c>
       <c r="E48" s="20">
         <v>45040</v>
       </c>
-      <c r="F48" s="44" t="s">
+      <c r="F48" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="G48" s="41"/>
-      <c r="H48" s="41"/>
-      <c r="I48" s="45"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="40"/>
+      <c r="I48" s="44"/>
     </row>
     <row r="49" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="42" t="s">
+      <c r="A49" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="43" t="s">
+      <c r="B49" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C49" s="62"/>
+      <c r="C49" s="61"/>
       <c r="D49" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E49" s="21">
         <v>45042</v>
       </c>
-      <c r="F49" s="46" t="s">
+      <c r="F49" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="G49" s="43"/>
-      <c r="H49" s="43"/>
-      <c r="I49" s="47"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="42"/>
+      <c r="I49" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="16">

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Westfield/classes/CAIS117-S24/website/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9CA141-2A32-DF4A-B43B-0CB3A5724033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3708C250-57E9-A54C-879E-62F901C20C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51740" yWindow="840" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60100" yWindow="840" windowWidth="20440" windowHeight="22920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sched" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="95">
   <si>
     <t>Date</t>
   </si>
@@ -315,6 +315,9 @@
   </si>
   <si>
     <t>Paper prototyping &amp; Proposal check-in</t>
+  </si>
+  <si>
+    <t>proj, reflection</t>
   </si>
 </sst>
 </file>
@@ -814,8 +817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37E44A5-0A5F-414A-B4D4-809AE35C85CF}">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1777,7 +1780,7 @@
       <c r="G47" s="71"/>
       <c r="H47" s="71"/>
       <c r="I47" s="72" t="s">
-        <v>3</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Westfield/classes/CAIS117-S24/website/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3708C250-57E9-A54C-879E-62F901C20C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D986196-44C7-CB4C-9E09-28E1F60398F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60100" yWindow="840" windowWidth="20440" windowHeight="22920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sched" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="94">
   <si>
     <t>Date</t>
   </si>
@@ -215,12 +215,6 @@
     <t>proj-prototypeI</t>
   </si>
   <si>
-    <t>Handling exceptions</t>
-  </si>
-  <si>
-    <t>Ch 10</t>
-  </si>
-  <si>
     <t>Advanced Topics - Visual Analytics</t>
   </si>
   <si>
@@ -318,6 +312,9 @@
   </si>
   <si>
     <t>proj, reflection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO CLASS - Ab Sick </t>
   </si>
 </sst>
 </file>
@@ -574,6 +571,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -592,14 +597,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -817,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37E44A5-0A5F-414A-B4D4-809AE35C85CF}">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35:I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -862,7 +859,7 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="15"/>
       <c r="B2" s="17"/>
-      <c r="C2" s="59">
+      <c r="C2" s="67">
         <v>1</v>
       </c>
       <c r="D2" s="8"/>
@@ -875,7 +872,7 @@
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="16"/>
       <c r="B3" s="18"/>
-      <c r="C3" s="60"/>
+      <c r="C3" s="68"/>
       <c r="D3" t="s">
         <v>15</v>
       </c>
@@ -890,7 +887,7 @@
     <row r="4" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
       <c r="B4" s="19"/>
-      <c r="C4" s="61"/>
+      <c r="C4" s="69"/>
       <c r="D4" s="13" t="s">
         <v>17</v>
       </c>
@@ -911,7 +908,7 @@
       <c r="B5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="59">
+      <c r="C5" s="67">
         <v>2</v>
       </c>
       <c r="D5" s="8" t="s">
@@ -932,7 +929,7 @@
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="10"/>
       <c r="B6" s="18"/>
-      <c r="C6" s="60"/>
+      <c r="C6" s="68"/>
       <c r="D6" t="s">
         <v>15</v>
       </c>
@@ -940,16 +937,16 @@
         <v>44950</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I6" s="56" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="61"/>
+      <c r="C7" s="69"/>
       <c r="D7" s="13" t="s">
         <v>17</v>
       </c>
@@ -963,14 +960,14 @@
         <v>25</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I7" s="47"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="59">
+      <c r="C8" s="67">
         <v>3</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -990,7 +987,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
-      <c r="C9" s="60"/>
+      <c r="C9" s="68"/>
       <c r="D9" t="s">
         <v>15</v>
       </c>
@@ -1008,7 +1005,7 @@
     <row r="10" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12"/>
       <c r="B10" s="13"/>
-      <c r="C10" s="61"/>
+      <c r="C10" s="69"/>
       <c r="D10" s="13" t="s">
         <v>17</v>
       </c>
@@ -1025,13 +1022,13 @@
         <v>20</v>
       </c>
       <c r="I10" s="47" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7"/>
       <c r="B11" s="17"/>
-      <c r="C11" s="59">
+      <c r="C11" s="67">
         <v>4</v>
       </c>
       <c r="D11" s="8" t="s">
@@ -1041,7 +1038,7 @@
         <v>44962</v>
       </c>
       <c r="F11" s="54" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G11" s="57" t="s">
         <v>42</v>
@@ -1054,7 +1051,7 @@
       <c r="B12" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="60"/>
+      <c r="C12" s="68"/>
       <c r="D12" t="s">
         <v>15</v>
       </c>
@@ -1065,13 +1062,13 @@
         <v>35</v>
       </c>
       <c r="I12" s="56" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
-      <c r="C13" s="61"/>
+      <c r="C13" s="69"/>
       <c r="D13" s="13" t="s">
         <v>17</v>
       </c>
@@ -1085,7 +1082,7 @@
         <v>33</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I13" s="47" t="s">
         <v>20</v>
@@ -1094,7 +1091,7 @@
     <row r="14" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="59">
+      <c r="C14" s="67">
         <v>5</v>
       </c>
       <c r="D14" s="8" t="s">
@@ -1114,7 +1111,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
-      <c r="C15" s="60"/>
+      <c r="C15" s="68"/>
       <c r="D15" t="s">
         <v>15</v>
       </c>
@@ -1122,7 +1119,7 @@
         <v>44971</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s">
         <v>43</v>
@@ -1132,7 +1129,7 @@
     <row r="16" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
       <c r="B16" s="13"/>
-      <c r="C16" s="61"/>
+      <c r="C16" s="69"/>
       <c r="D16" s="13" t="s">
         <v>17</v>
       </c>
@@ -1140,7 +1137,7 @@
         <v>44973</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G16" s="19" t="s">
         <v>43</v>
@@ -1149,23 +1146,23 @@
         <v>28</v>
       </c>
       <c r="I16" s="47" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
-      <c r="C17" s="59">
+      <c r="C17" s="67">
         <v>6</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E17" s="22">
         <v>45342</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
@@ -1176,7 +1173,7 @@
       <c r="B18" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="60"/>
+      <c r="C18" s="68"/>
       <c r="D18" t="s">
         <v>15</v>
       </c>
@@ -1184,16 +1181,16 @@
         <v>44978</v>
       </c>
       <c r="F18" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="I18" s="56" t="s">
         <v>83</v>
-      </c>
-      <c r="I18" s="56" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="12"/>
       <c r="B19" s="19"/>
-      <c r="C19" s="61"/>
+      <c r="C19" s="69"/>
       <c r="D19" s="13" t="s">
         <v>17</v>
       </c>
@@ -1201,13 +1198,13 @@
         <v>44980</v>
       </c>
       <c r="F19" s="55" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G19" s="19" t="s">
         <v>39</v>
       </c>
       <c r="H19" s="19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I19" s="47" t="s">
         <v>28</v>
@@ -1216,7 +1213,7 @@
     <row r="20" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="59">
+      <c r="C20" s="67">
         <v>7</v>
       </c>
       <c r="D20" s="8" t="s">
@@ -1226,7 +1223,7 @@
         <v>44983</v>
       </c>
       <c r="F20" s="58" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G20" s="17" t="s">
         <v>39</v>
@@ -1236,7 +1233,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="10"/>
-      <c r="C21" s="60"/>
+      <c r="C21" s="68"/>
       <c r="D21" t="s">
         <v>15</v>
       </c>
@@ -1258,7 +1255,7 @@
       <c r="B22" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="61"/>
+      <c r="C22" s="69"/>
       <c r="D22" s="34" t="s">
         <v>17</v>
       </c>
@@ -1266,20 +1263,20 @@
         <v>44986</v>
       </c>
       <c r="F22" s="36" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G22" s="36"/>
       <c r="H22" s="36" t="s">
         <v>34</v>
       </c>
       <c r="I22" s="52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
-      <c r="C23" s="59">
+      <c r="C23" s="67">
         <v>8</v>
       </c>
       <c r="D23" s="8" t="s">
@@ -1300,7 +1297,7 @@
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
       <c r="B24" s="18"/>
-      <c r="C24" s="60"/>
+      <c r="C24" s="68"/>
       <c r="D24" t="s">
         <v>15</v>
       </c>
@@ -1320,7 +1317,7 @@
       <c r="B25" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="61"/>
+      <c r="C25" s="69"/>
       <c r="D25" s="13" t="s">
         <v>17</v>
       </c>
@@ -1328,14 +1325,14 @@
         <v>44993</v>
       </c>
       <c r="F25" s="51" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G25" s="13"/>
       <c r="H25" s="19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I25" s="47" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
@@ -1345,7 +1342,7 @@
       <c r="B26" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="62">
+      <c r="C26" s="70">
         <v>9</v>
       </c>
       <c r="D26" s="24" t="s">
@@ -1355,7 +1352,7 @@
         <v>44996</v>
       </c>
       <c r="F26" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G26" s="24"/>
       <c r="H26" s="24"/>
@@ -1368,7 +1365,7 @@
       <c r="B27" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="63"/>
+      <c r="C27" s="71"/>
       <c r="D27" s="29" t="s">
         <v>15</v>
       </c>
@@ -1376,7 +1373,7 @@
         <v>44998</v>
       </c>
       <c r="F27" s="31" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G27" s="29"/>
       <c r="H27" s="29"/>
@@ -1389,7 +1386,7 @@
       <c r="B28" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="64"/>
+      <c r="C28" s="72"/>
       <c r="D28" s="34" t="s">
         <v>17</v>
       </c>
@@ -1397,7 +1394,7 @@
         <v>45000</v>
       </c>
       <c r="F28" s="36" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G28" s="34"/>
       <c r="H28" s="34"/>
@@ -1406,7 +1403,7 @@
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="7"/>
       <c r="B29" s="8"/>
-      <c r="C29" s="59">
+      <c r="C29" s="67">
         <v>10</v>
       </c>
       <c r="D29" s="8" t="s">
@@ -1426,7 +1423,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="10"/>
-      <c r="C30" s="60"/>
+      <c r="C30" s="68"/>
       <c r="D30" t="s">
         <v>15</v>
       </c>
@@ -1444,7 +1441,7 @@
     <row r="31" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
-      <c r="C31" s="61"/>
+      <c r="C31" s="69"/>
       <c r="D31" s="13" t="s">
         <v>17</v>
       </c>
@@ -1461,7 +1458,7 @@
         <v>38</v>
       </c>
       <c r="I31" s="47" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
@@ -1469,7 +1466,7 @@
       <c r="B32" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="59">
+      <c r="C32" s="67">
         <v>11</v>
       </c>
       <c r="D32" s="8" t="s">
@@ -1484,12 +1481,12 @@
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
       <c r="I32" s="48" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="10"/>
-      <c r="C33" s="60"/>
+      <c r="C33" s="68"/>
       <c r="D33" t="s">
         <v>15</v>
       </c>
@@ -1507,7 +1504,7 @@
     <row r="34" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="12"/>
       <c r="B34" s="13"/>
-      <c r="C34" s="61"/>
+      <c r="C34" s="69"/>
       <c r="D34" s="13" t="s">
         <v>17</v>
       </c>
@@ -1528,29 +1525,31 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A35" s="7"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="59">
+      <c r="A35" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="67">
         <v>12</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="E35" s="22">
+      <c r="E35" s="25">
         <v>45017</v>
       </c>
-      <c r="F35" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H35" s="8"/>
-      <c r="I35" s="9"/>
+      <c r="F35" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="27"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="10"/>
-      <c r="C36" s="60"/>
+      <c r="C36" s="68"/>
       <c r="D36" t="s">
         <v>15</v>
       </c>
@@ -1558,7 +1557,7 @@
         <v>45019</v>
       </c>
       <c r="F36" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I36" s="11"/>
     </row>
@@ -1567,7 +1566,7 @@
       <c r="B37" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="61"/>
+      <c r="C37" s="69"/>
       <c r="D37" s="13" t="s">
         <v>17</v>
       </c>
@@ -1575,18 +1574,18 @@
         <v>45021</v>
       </c>
       <c r="F37" s="51" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G37" s="13"/>
       <c r="H37" s="13"/>
       <c r="I37" s="47" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="7"/>
       <c r="B38" s="8"/>
-      <c r="C38" s="59">
+      <c r="C38" s="67">
         <v>13</v>
       </c>
       <c r="D38" s="8" t="s">
@@ -1596,17 +1595,17 @@
         <v>45024</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H38" s="8"/>
       <c r="I38" s="9"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="10"/>
-      <c r="C39" s="60"/>
+      <c r="C39" s="68"/>
       <c r="D39" t="s">
         <v>15</v>
       </c>
@@ -1628,7 +1627,7 @@
       <c r="B40" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="61"/>
+      <c r="C40" s="69"/>
       <c r="D40" s="34" t="s">
         <v>17</v>
       </c>
@@ -1651,7 +1650,7 @@
       <c r="B41" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="59">
+      <c r="C41" s="67">
         <v>14</v>
       </c>
       <c r="D41" s="24" t="s">
@@ -1661,7 +1660,7 @@
         <v>45031</v>
       </c>
       <c r="F41" s="26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G41" s="24" t="s">
         <v>58</v>
@@ -1671,7 +1670,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" s="10"/>
-      <c r="C42" s="60"/>
+      <c r="C42" s="68"/>
       <c r="D42" t="s">
         <v>15</v>
       </c>
@@ -1679,7 +1678,7 @@
         <v>45033</v>
       </c>
       <c r="F42" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I42" s="11"/>
     </row>
@@ -1688,7 +1687,7 @@
       <c r="B43" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C43" s="61"/>
+      <c r="C43" s="69"/>
       <c r="D43" s="13" t="s">
         <v>17</v>
       </c>
@@ -1696,18 +1695,18 @@
         <v>45035</v>
       </c>
       <c r="F43" s="51" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G43" s="13"/>
       <c r="H43" s="13"/>
       <c r="I43" s="47" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" s="7"/>
       <c r="B44" s="17"/>
-      <c r="C44" s="59">
+      <c r="C44" s="67">
         <v>15</v>
       </c>
       <c r="D44" s="8" t="s">
@@ -1722,12 +1721,12 @@
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
       <c r="I44" s="48" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" s="10"/>
-      <c r="C45" s="60"/>
+      <c r="C45" s="68"/>
       <c r="D45" t="s">
         <v>15</v>
       </c>
@@ -1735,16 +1734,16 @@
         <v>45040</v>
       </c>
       <c r="F45" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I45" s="11"/>
     </row>
     <row r="46" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="65"/>
-      <c r="B46" s="66" t="s">
+      <c r="A46" s="59"/>
+      <c r="B46" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="61"/>
+      <c r="C46" s="69"/>
       <c r="D46" s="13" t="s">
         <v>17</v>
       </c>
@@ -1752,20 +1751,20 @@
         <v>45042</v>
       </c>
       <c r="F46" s="45" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G46" s="42"/>
       <c r="H46" s="42"/>
-      <c r="I46" s="69"/>
+      <c r="I46" s="63"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A47" s="67" t="s">
+      <c r="A47" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="B47" s="68" t="s">
+      <c r="B47" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="C47" s="59">
+      <c r="C47" s="67">
         <v>16</v>
       </c>
       <c r="D47" s="8" t="s">
@@ -1774,13 +1773,13 @@
       <c r="E47" s="22">
         <v>45038</v>
       </c>
-      <c r="F47" s="70" t="s">
-        <v>64</v>
-      </c>
-      <c r="G47" s="71"/>
-      <c r="H47" s="71"/>
-      <c r="I47" s="72" t="s">
-        <v>94</v>
+      <c r="F47" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="G47" s="65"/>
+      <c r="H47" s="65"/>
+      <c r="I47" s="66" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
@@ -1790,7 +1789,7 @@
       <c r="B48" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="60"/>
+      <c r="C48" s="68"/>
       <c r="D48" t="s">
         <v>15</v>
       </c>
@@ -1798,7 +1797,7 @@
         <v>45040</v>
       </c>
       <c r="F48" s="43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G48" s="40"/>
       <c r="H48" s="40"/>
@@ -1811,7 +1810,7 @@
       <c r="B49" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C49" s="61"/>
+      <c r="C49" s="69"/>
       <c r="D49" s="13" t="s">
         <v>17</v>
       </c>
@@ -1819,7 +1818,7 @@
         <v>45042</v>
       </c>
       <c r="F49" s="45" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G49" s="42"/>
       <c r="H49" s="42"/>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Westfield/classes/CAIS117-S24/website/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D986196-44C7-CB4C-9E09-28E1F60398F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{22C19A7D-97BA-064F-A2FF-F6BBD738A28C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -815,7 +815,7 @@
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35:I35"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Westfield/classes/CAIS117-S24/website/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22C19A7D-97BA-064F-A2FF-F6BBD738A28C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB0484C-D266-2247-A1AF-FF1FDE697195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,9 +299,6 @@
     <t>ic05</t>
   </si>
   <si>
-    <t>proj-proposal, ic06</t>
-  </si>
-  <si>
     <t>proj-prototypeII, ic07</t>
   </si>
   <si>
@@ -315,6 +312,9 @@
   </si>
   <si>
     <t xml:space="preserve">NO CLASS - Ab Sick </t>
+  </si>
+  <si>
+    <t>proj-proposal</t>
   </si>
 </sst>
 </file>
@@ -814,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37E44A5-0A5F-414A-B4D4-809AE35C85CF}">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1541,7 +1541,7 @@
         <v>45017</v>
       </c>
       <c r="F35" s="26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G35" s="24"/>
       <c r="H35" s="24"/>
@@ -1574,12 +1574,12 @@
         <v>45021</v>
       </c>
       <c r="F37" s="51" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="13"/>
       <c r="H37" s="13"/>
       <c r="I37" s="47" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
@@ -1700,7 +1700,7 @@
       <c r="G43" s="13"/>
       <c r="H43" s="13"/>
       <c r="I43" s="47" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
@@ -1721,7 +1721,7 @@
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
       <c r="I44" s="48" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
@@ -1779,7 +1779,7 @@
       <c r="G47" s="65"/>
       <c r="H47" s="65"/>
       <c r="I47" s="66" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Westfield/classes/CAIS117-S24/website/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB0484C-D266-2247-A1AF-FF1FDE697195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78811502-5603-9B4E-AF67-954F85CC245A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32300" yWindow="2340" windowWidth="25880" windowHeight="20840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sched" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="93">
   <si>
     <t>Date</t>
   </si>
@@ -206,12 +206,6 @@
     <t>Interaction</t>
   </si>
   <si>
-    <t>Introduction to algorithms</t>
-  </si>
-  <si>
-    <t>Ch 16</t>
-  </si>
-  <si>
     <t>proj-prototypeI</t>
   </si>
   <si>
@@ -299,12 +293,6 @@
     <t>ic05</t>
   </si>
   <si>
-    <t>proj-prototypeII, ic07</t>
-  </si>
-  <si>
-    <t>ic08</t>
-  </si>
-  <si>
     <t>Paper prototyping &amp; Proposal check-in</t>
   </si>
   <si>
@@ -315,6 +303,15 @@
   </si>
   <si>
     <t>proj-proposal</t>
+  </si>
+  <si>
+    <t>Advanced Topics - Files / NLP</t>
+  </si>
+  <si>
+    <t>proj-prototypeII</t>
+  </si>
+  <si>
+    <t>ic06</t>
   </si>
 </sst>
 </file>
@@ -815,7 +812,7 @@
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -937,10 +934,10 @@
         <v>44950</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I6" s="56" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -960,7 +957,7 @@
         <v>25</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I7" s="47"/>
     </row>
@@ -1022,7 +1019,7 @@
         <v>20</v>
       </c>
       <c r="I10" s="47" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.15">
@@ -1038,7 +1035,7 @@
         <v>44962</v>
       </c>
       <c r="F11" s="54" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G11" s="57" t="s">
         <v>42</v>
@@ -1062,7 +1059,7 @@
         <v>35</v>
       </c>
       <c r="I12" s="56" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -1082,7 +1079,7 @@
         <v>33</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I13" s="47" t="s">
         <v>20</v>
@@ -1119,7 +1116,7 @@
         <v>44971</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G15" t="s">
         <v>43</v>
@@ -1137,7 +1134,7 @@
         <v>44973</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G16" s="19" t="s">
         <v>43</v>
@@ -1146,7 +1143,7 @@
         <v>28</v>
       </c>
       <c r="I16" s="47" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
@@ -1156,13 +1153,13 @@
         <v>6</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E17" s="22">
         <v>45342</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
@@ -1181,10 +1178,10 @@
         <v>44978</v>
       </c>
       <c r="F18" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="I18" s="56" t="s">
         <v>81</v>
-      </c>
-      <c r="I18" s="56" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -1198,13 +1195,13 @@
         <v>44980</v>
       </c>
       <c r="F19" s="55" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G19" s="19" t="s">
         <v>39</v>
       </c>
       <c r="H19" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I19" s="47" t="s">
         <v>28</v>
@@ -1223,7 +1220,7 @@
         <v>44983</v>
       </c>
       <c r="F20" s="58" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G20" s="17" t="s">
         <v>39</v>
@@ -1263,14 +1260,14 @@
         <v>44986</v>
       </c>
       <c r="F22" s="36" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G22" s="36"/>
       <c r="H22" s="36" t="s">
         <v>34</v>
       </c>
       <c r="I22" s="52" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
@@ -1325,14 +1322,14 @@
         <v>44993</v>
       </c>
       <c r="F25" s="51" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G25" s="13"/>
       <c r="H25" s="19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I25" s="47" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
@@ -1352,7 +1349,7 @@
         <v>44996</v>
       </c>
       <c r="F26" s="26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G26" s="24"/>
       <c r="H26" s="24"/>
@@ -1373,7 +1370,7 @@
         <v>44998</v>
       </c>
       <c r="F27" s="31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G27" s="29"/>
       <c r="H27" s="29"/>
@@ -1394,7 +1391,7 @@
         <v>45000</v>
       </c>
       <c r="F28" s="36" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G28" s="34"/>
       <c r="H28" s="34"/>
@@ -1458,7 +1455,7 @@
         <v>38</v>
       </c>
       <c r="I31" s="47" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
@@ -1481,7 +1478,7 @@
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
       <c r="I32" s="48" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
@@ -1541,7 +1538,7 @@
         <v>45017</v>
       </c>
       <c r="F35" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G35" s="24"/>
       <c r="H35" s="24"/>
@@ -1557,7 +1554,7 @@
         <v>45019</v>
       </c>
       <c r="F36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I36" s="11"/>
     </row>
@@ -1574,12 +1571,12 @@
         <v>45021</v>
       </c>
       <c r="F37" s="51" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G37" s="13"/>
       <c r="H37" s="13"/>
       <c r="I37" s="47" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
@@ -1612,11 +1609,8 @@
       <c r="E39" s="20">
         <v>45026</v>
       </c>
-      <c r="F39" t="s">
-        <v>57</v>
-      </c>
-      <c r="G39" t="s">
-        <v>58</v>
+      <c r="F39" s="18" t="s">
+        <v>67</v>
       </c>
       <c r="I39" s="11"/>
     </row>
@@ -1640,7 +1634,7 @@
       <c r="G40" s="34"/>
       <c r="H40" s="34"/>
       <c r="I40" s="52" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
@@ -1660,16 +1654,17 @@
         <v>45031</v>
       </c>
       <c r="F41" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="G41" s="24" t="s">
-        <v>58</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G41" s="24"/>
       <c r="H41" s="24"/>
       <c r="I41" s="27"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" s="10"/>
+      <c r="B42" s="18" t="s">
+        <v>12</v>
+      </c>
       <c r="C42" s="68"/>
       <c r="D42" t="s">
         <v>15</v>
@@ -1677,8 +1672,8 @@
       <c r="E42" s="20">
         <v>45033</v>
       </c>
-      <c r="F42" t="s">
-        <v>69</v>
+      <c r="F42" s="50" t="s">
+        <v>90</v>
       </c>
       <c r="I42" s="11"/>
     </row>
@@ -1695,17 +1690,19 @@
         <v>45035</v>
       </c>
       <c r="F43" s="51" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G43" s="13"/>
       <c r="H43" s="13"/>
       <c r="I43" s="47" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" s="7"/>
-      <c r="B44" s="17"/>
+      <c r="B44" s="17" t="s">
+        <v>12</v>
+      </c>
       <c r="C44" s="67">
         <v>15</v>
       </c>
@@ -1716,12 +1713,12 @@
         <v>45038</v>
       </c>
       <c r="F44" s="49" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
       <c r="I44" s="48" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
@@ -1734,7 +1731,7 @@
         <v>45040</v>
       </c>
       <c r="F45" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I45" s="11"/>
     </row>
@@ -1751,7 +1748,7 @@
         <v>45042</v>
       </c>
       <c r="F46" s="45" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G46" s="42"/>
       <c r="H46" s="42"/>
@@ -1774,12 +1771,12 @@
         <v>45038</v>
       </c>
       <c r="F47" s="64" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G47" s="65"/>
       <c r="H47" s="65"/>
       <c r="I47" s="66" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
@@ -1797,7 +1794,7 @@
         <v>45040</v>
       </c>
       <c r="F48" s="43" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G48" s="40"/>
       <c r="H48" s="40"/>
@@ -1818,7 +1815,7 @@
         <v>45042</v>
       </c>
       <c r="F49" s="45" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G49" s="42"/>
       <c r="H49" s="42"/>

--- a/assets/sched.xlsx
+++ b/assets/sched.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abmosca/Documents/Documents/Westfield/classes/CAIS117-S24/website/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78811502-5603-9B4E-AF67-954F85CC245A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7CF0A94-EF10-5344-908C-1B78670A36B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32300" yWindow="2340" windowWidth="25880" windowHeight="20840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="93">
   <si>
     <t>Date</t>
   </si>
@@ -498,7 +498,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -546,12 +546,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -594,6 +592,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -812,7 +814,7 @@
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -856,7 +858,7 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="15"/>
       <c r="B2" s="17"/>
-      <c r="C2" s="67">
+      <c r="C2" s="65">
         <v>1</v>
       </c>
       <c r="D2" s="8"/>
@@ -869,7 +871,7 @@
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="16"/>
       <c r="B3" s="18"/>
-      <c r="C3" s="68"/>
+      <c r="C3" s="66"/>
       <c r="D3" t="s">
         <v>15</v>
       </c>
@@ -884,7 +886,7 @@
     <row r="4" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
       <c r="B4" s="19"/>
-      <c r="C4" s="69"/>
+      <c r="C4" s="67"/>
       <c r="D4" s="13" t="s">
         <v>17</v>
       </c>
@@ -905,7 +907,7 @@
       <c r="B5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="67">
+      <c r="C5" s="65">
         <v>2</v>
       </c>
       <c r="D5" s="8" t="s">
@@ -914,19 +916,19 @@
       <c r="E5" s="22">
         <v>44948</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="47" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>23</v>
       </c>
       <c r="H5" s="8"/>
-      <c r="I5" s="48"/>
+      <c r="I5" s="46"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="10"/>
       <c r="B6" s="18"/>
-      <c r="C6" s="68"/>
+      <c r="C6" s="66"/>
       <c r="D6" t="s">
         <v>15</v>
       </c>
@@ -936,14 +938,14 @@
       <c r="F6" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="I6" s="56" t="s">
+      <c r="I6" s="54" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="69"/>
+      <c r="C7" s="67"/>
       <c r="D7" s="13" t="s">
         <v>17</v>
       </c>
@@ -959,12 +961,12 @@
       <c r="H7" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="I7" s="47"/>
+      <c r="I7" s="45"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="67">
+      <c r="C8" s="65">
         <v>3</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -984,7 +986,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
-      <c r="C9" s="68"/>
+      <c r="C9" s="66"/>
       <c r="D9" t="s">
         <v>15</v>
       </c>
@@ -1002,7 +1004,7 @@
     <row r="10" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12"/>
       <c r="B10" s="13"/>
-      <c r="C10" s="69"/>
+      <c r="C10" s="67"/>
       <c r="D10" s="13" t="s">
         <v>17</v>
       </c>
@@ -1018,14 +1020,14 @@
       <c r="H10" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="47" t="s">
+      <c r="I10" s="45" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7"/>
       <c r="B11" s="17"/>
-      <c r="C11" s="67">
+      <c r="C11" s="65">
         <v>4</v>
       </c>
       <c r="D11" s="8" t="s">
@@ -1034,10 +1036,10 @@
       <c r="E11" s="22">
         <v>44962</v>
       </c>
-      <c r="F11" s="54" t="s">
+      <c r="F11" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="G11" s="57" t="s">
+      <c r="G11" s="55" t="s">
         <v>42</v>
       </c>
       <c r="H11" s="8"/>
@@ -1048,24 +1050,24 @@
       <c r="B12" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="68"/>
+      <c r="C12" s="66"/>
       <c r="D12" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="20">
         <v>44964</v>
       </c>
-      <c r="F12" s="50" t="s">
+      <c r="F12" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="56" t="s">
+      <c r="I12" s="54" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
-      <c r="C13" s="69"/>
+      <c r="C13" s="67"/>
       <c r="D13" s="13" t="s">
         <v>17</v>
       </c>
@@ -1081,14 +1083,14 @@
       <c r="H13" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="I13" s="47" t="s">
+      <c r="I13" s="45" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="67">
+      <c r="C14" s="65">
         <v>5</v>
       </c>
       <c r="D14" s="8" t="s">
@@ -1097,10 +1099,10 @@
       <c r="E14" s="22">
         <v>44969</v>
       </c>
-      <c r="F14" s="58" t="s">
+      <c r="F14" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="57" t="s">
+      <c r="G14" s="55" t="s">
         <v>41</v>
       </c>
       <c r="H14" s="8"/>
@@ -1108,7 +1110,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
-      <c r="C15" s="68"/>
+      <c r="C15" s="66"/>
       <c r="D15" t="s">
         <v>15</v>
       </c>
@@ -1126,7 +1128,7 @@
     <row r="16" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
       <c r="B16" s="13"/>
-      <c r="C16" s="69"/>
+      <c r="C16" s="67"/>
       <c r="D16" s="13" t="s">
         <v>17</v>
       </c>
@@ -1142,14 +1144,14 @@
       <c r="H16" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="47" t="s">
+      <c r="I16" s="45" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
-      <c r="C17" s="67">
+      <c r="C17" s="65">
         <v>6</v>
       </c>
       <c r="D17" s="17" t="s">
@@ -1170,31 +1172,31 @@
       <c r="B18" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="68"/>
+      <c r="C18" s="66"/>
       <c r="D18" t="s">
         <v>15</v>
       </c>
       <c r="E18" s="20">
         <v>44978</v>
       </c>
-      <c r="F18" s="50" t="s">
+      <c r="F18" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="I18" s="56" t="s">
+      <c r="I18" s="54" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="12"/>
       <c r="B19" s="19"/>
-      <c r="C19" s="69"/>
+      <c r="C19" s="67"/>
       <c r="D19" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E19" s="21">
         <v>44980</v>
       </c>
-      <c r="F19" s="55" t="s">
+      <c r="F19" s="53" t="s">
         <v>77</v>
       </c>
       <c r="G19" s="19" t="s">
@@ -1203,14 +1205,14 @@
       <c r="H19" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="I19" s="47" t="s">
+      <c r="I19" s="45" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="67">
+      <c r="C20" s="65">
         <v>7</v>
       </c>
       <c r="D20" s="8" t="s">
@@ -1219,7 +1221,7 @@
       <c r="E20" s="22">
         <v>44983</v>
       </c>
-      <c r="F20" s="58" t="s">
+      <c r="F20" s="56" t="s">
         <v>70</v>
       </c>
       <c r="G20" s="17" t="s">
@@ -1230,7 +1232,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="10"/>
-      <c r="C21" s="68"/>
+      <c r="C21" s="66"/>
       <c r="D21" t="s">
         <v>15</v>
       </c>
@@ -1246,13 +1248,13 @@
       <c r="I21" s="11"/>
     </row>
     <row r="22" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="53" t="s">
+      <c r="A22" s="51" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="69"/>
+      <c r="C22" s="67"/>
       <c r="D22" s="34" t="s">
         <v>17</v>
       </c>
@@ -1266,14 +1268,14 @@
       <c r="H22" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="I22" s="52" t="s">
+      <c r="I22" s="50" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
-      <c r="C23" s="67">
+      <c r="C23" s="65">
         <v>8</v>
       </c>
       <c r="D23" s="8" t="s">
@@ -1282,7 +1284,7 @@
       <c r="E23" s="22">
         <v>44989</v>
       </c>
-      <c r="F23" s="54" t="s">
+      <c r="F23" s="52" t="s">
         <v>46</v>
       </c>
       <c r="G23" s="8" t="s">
@@ -1294,14 +1296,14 @@
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
       <c r="B24" s="18"/>
-      <c r="C24" s="68"/>
+      <c r="C24" s="66"/>
       <c r="D24" t="s">
         <v>15</v>
       </c>
       <c r="E24" s="20">
         <v>44991</v>
       </c>
-      <c r="F24" s="55" t="s">
+      <c r="F24" s="53" t="s">
         <v>48</v>
       </c>
       <c r="G24" t="s">
@@ -1314,21 +1316,21 @@
       <c r="B25" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="69"/>
+      <c r="C25" s="67"/>
       <c r="D25" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E25" s="21">
         <v>44993</v>
       </c>
-      <c r="F25" s="51" t="s">
+      <c r="F25" s="49" t="s">
         <v>84</v>
       </c>
       <c r="G25" s="13"/>
       <c r="H25" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="I25" s="47" t="s">
+      <c r="I25" s="45" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1339,7 +1341,7 @@
       <c r="B26" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="70">
+      <c r="C26" s="68">
         <v>9</v>
       </c>
       <c r="D26" s="24" t="s">
@@ -1362,7 +1364,7 @@
       <c r="B27" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="71"/>
+      <c r="C27" s="69"/>
       <c r="D27" s="29" t="s">
         <v>15</v>
       </c>
@@ -1383,7 +1385,7 @@
       <c r="B28" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="72"/>
+      <c r="C28" s="70"/>
       <c r="D28" s="34" t="s">
         <v>17</v>
       </c>
@@ -1400,7 +1402,7 @@
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="7"/>
       <c r="B29" s="8"/>
-      <c r="C29" s="67">
+      <c r="C29" s="65">
         <v>10</v>
       </c>
       <c r="D29" s="8" t="s">
@@ -1420,7 +1422,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="10"/>
-      <c r="C30" s="68"/>
+      <c r="C30" s="66"/>
       <c r="D30" t="s">
         <v>15</v>
       </c>
@@ -1438,7 +1440,7 @@
     <row r="31" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
-      <c r="C31" s="69"/>
+      <c r="C31" s="67"/>
       <c r="D31" s="13" t="s">
         <v>17</v>
       </c>
@@ -1454,7 +1456,7 @@
       <c r="H31" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="I31" s="47" t="s">
+      <c r="I31" s="45" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1463,7 +1465,7 @@
       <c r="B32" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="67">
+      <c r="C32" s="65">
         <v>11</v>
       </c>
       <c r="D32" s="8" t="s">
@@ -1472,18 +1474,18 @@
       <c r="E32" s="22">
         <v>45010</v>
       </c>
-      <c r="F32" s="49" t="s">
+      <c r="F32" s="47" t="s">
         <v>35</v>
       </c>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
-      <c r="I32" s="48" t="s">
+      <c r="I32" s="46" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="10"/>
-      <c r="C33" s="68"/>
+      <c r="C33" s="66"/>
       <c r="D33" t="s">
         <v>15</v>
       </c>
@@ -1501,7 +1503,7 @@
     <row r="34" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="12"/>
       <c r="B34" s="13"/>
-      <c r="C34" s="69"/>
+      <c r="C34" s="67"/>
       <c r="D34" s="13" t="s">
         <v>17</v>
       </c>
@@ -1517,7 +1519,7 @@
       <c r="H34" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="I34" s="47" t="s">
+      <c r="I34" s="45" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1528,7 +1530,7 @@
       <c r="B35" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="67">
+      <c r="C35" s="65">
         <v>12</v>
       </c>
       <c r="D35" s="24" t="s">
@@ -1546,7 +1548,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="10"/>
-      <c r="C36" s="68"/>
+      <c r="C36" s="66"/>
       <c r="D36" t="s">
         <v>15</v>
       </c>
@@ -1563,26 +1565,26 @@
       <c r="B37" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="69"/>
+      <c r="C37" s="67"/>
       <c r="D37" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E37" s="21">
         <v>45021</v>
       </c>
-      <c r="F37" s="51" t="s">
+      <c r="F37" s="49" t="s">
         <v>86</v>
       </c>
       <c r="G37" s="13"/>
       <c r="H37" s="13"/>
-      <c r="I37" s="47" t="s">
+      <c r="I37" s="45" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="7"/>
       <c r="B38" s="8"/>
-      <c r="C38" s="67">
+      <c r="C38" s="65">
         <v>13</v>
       </c>
       <c r="D38" s="8" t="s">
@@ -1602,7 +1604,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="10"/>
-      <c r="C39" s="68"/>
+      <c r="C39" s="66"/>
       <c r="D39" t="s">
         <v>15</v>
       </c>
@@ -1615,13 +1617,13 @@
       <c r="I39" s="11"/>
     </row>
     <row r="40" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="53" t="s">
+      <c r="A40" s="51" t="s">
         <v>10</v>
       </c>
       <c r="B40" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="69"/>
+      <c r="C40" s="67"/>
       <c r="D40" s="34" t="s">
         <v>17</v>
       </c>
@@ -1633,7 +1635,7 @@
       </c>
       <c r="G40" s="34"/>
       <c r="H40" s="34"/>
-      <c r="I40" s="52" t="s">
+      <c r="I40" s="50" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1644,7 +1646,7 @@
       <c r="B41" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="67">
+      <c r="C41" s="65">
         <v>14</v>
       </c>
       <c r="D41" s="24" t="s">
@@ -1665,14 +1667,14 @@
       <c r="B42" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="68"/>
+      <c r="C42" s="66"/>
       <c r="D42" t="s">
         <v>15</v>
       </c>
       <c r="E42" s="20">
         <v>45033</v>
       </c>
-      <c r="F42" s="50" t="s">
+      <c r="F42" s="48" t="s">
         <v>90</v>
       </c>
       <c r="I42" s="11"/>
@@ -1682,19 +1684,19 @@
       <c r="B43" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C43" s="69"/>
+      <c r="C43" s="67"/>
       <c r="D43" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E43" s="21">
         <v>45035</v>
       </c>
-      <c r="F43" s="51" t="s">
+      <c r="F43" s="49" t="s">
         <v>68</v>
       </c>
       <c r="G43" s="13"/>
       <c r="H43" s="13"/>
-      <c r="I43" s="47" t="s">
+      <c r="I43" s="45" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1703,7 +1705,7 @@
       <c r="B44" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C44" s="67">
+      <c r="C44" s="65">
         <v>15</v>
       </c>
       <c r="D44" s="8" t="s">
@@ -1712,18 +1714,18 @@
       <c r="E44" s="22">
         <v>45038</v>
       </c>
-      <c r="F44" s="49" t="s">
+      <c r="F44" s="47" t="s">
         <v>68</v>
       </c>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
-      <c r="I44" s="48" t="s">
+      <c r="I44" s="46" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" s="10"/>
-      <c r="C45" s="68"/>
+      <c r="C45" s="66"/>
       <c r="D45" t="s">
         <v>15</v>
       </c>
@@ -1736,46 +1738,46 @@
       <c r="I45" s="11"/>
     </row>
     <row r="46" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="59"/>
-      <c r="B46" s="60" t="s">
+      <c r="A46" s="57"/>
+      <c r="B46" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="69"/>
+      <c r="C46" s="67"/>
       <c r="D46" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E46" s="21">
         <v>45042</v>
       </c>
-      <c r="F46" s="45" t="s">
+      <c r="F46" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="G46" s="42"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="63"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="61"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A47" s="61" t="s">
+      <c r="A47" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="B47" s="62" t="s">
+      <c r="B47" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C47" s="67">
+      <c r="C47" s="65">
         <v>16</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E47" s="22">
-        <v>45038</v>
-      </c>
-      <c r="F47" s="64" t="s">
+        <v>45411</v>
+      </c>
+      <c r="F47" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="G47" s="65"/>
-      <c r="H47" s="65"/>
-      <c r="I47" s="66" t="s">
+      <c r="G47" s="63"/>
+      <c r="H47" s="63"/>
+      <c r="I47" s="64" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1786,40 +1788,30 @@
       <c r="B48" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="68"/>
+      <c r="C48" s="66"/>
       <c r="D48" t="s">
         <v>15</v>
       </c>
       <c r="E48" s="20">
-        <v>45040</v>
-      </c>
-      <c r="F48" s="43" t="s">
+        <v>45413</v>
+      </c>
+      <c r="F48" s="42" t="s">
         <v>60</v>
       </c>
       <c r="G48" s="40"/>
       <c r="H48" s="40"/>
-      <c r="I48" s="44"/>
+      <c r="I48" s="43"/>
     </row>
     <row r="49" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="B49" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49" s="69"/>
-      <c r="D49" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E49" s="21">
-        <v>45042</v>
-      </c>
-      <c r="F49" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="G49" s="42"/>
-      <c r="H49" s="42"/>
-      <c r="I49" s="46"/>
+      <c r="A49" s="71"/>
+      <c r="B49" s="72"/>
+      <c r="C49" s="67"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="73"/>
+      <c r="G49" s="72"/>
+      <c r="H49" s="72"/>
+      <c r="I49" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="16">
